--- a/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
+++ b/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OutDoor" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="214">
   <si>
     <t>SF5</t>
   </si>
@@ -347,9 +347,6 @@
     <t>500m</t>
   </si>
   <si>
-    <t>Obstacle</t>
-  </si>
-  <si>
     <t>Rx39</t>
   </si>
   <si>
@@ -654,6 +651,15 @@
   </si>
   <si>
     <t>Rx 99</t>
+  </si>
+  <si>
+    <t>Obstacle 500m</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1017,25 +1023,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1054,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1062,23 +1075,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2493,24 +2499,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="42635264"/>
-        <c:axId val="42637568"/>
+        <c:axId val="111696896"/>
+        <c:axId val="111706880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42635264"/>
+        <c:axId val="111696896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42637568"/>
+        <c:crossAx val="111706880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42637568"/>
+        <c:axId val="111706880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,13 +2524,228 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42635264"/>
+        <c:crossAx val="111696896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ebyte</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3.2</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3.45</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3.67</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3.86</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4.03</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4.17</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>4.29</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Ebyte!$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="44586880"/>
+        <c:axId val="44617728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44586880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44617728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44617728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44586880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2537,10 +2758,28 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2549,1587 +2788,230 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>0.15</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>CP!$C$3:$C$513</c:f>
+              <c:f>CP!$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="511"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.54</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>2.62</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81576320"/>
-        <c:axId val="81577856"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0.65</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1.11</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1.53</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1.93</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2.29</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2.62</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2.93</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>3.2</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>4.38</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>CP!$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="68715264"/>
+        <c:axId val="68717184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81576320"/>
+        <c:axId val="68715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81577856"/>
+        <c:crossAx val="68717184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81577856"/>
+        <c:axId val="68717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81576320"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="68715264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4198,16 +3080,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>431</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4226,6 +3108,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4233,20 +3145,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347869</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4551,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4578,70 +3490,70 @@
   <sheetData>
     <row r="3" spans="1:20" ht="50.25">
       <c r="B3" s="21"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="23" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="32"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="39">
       <c r="A4" s="3"/>
       <c r="B4" s="22"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="26" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="33" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="28" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="33" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="34"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:20" ht="32.25">
       <c r="A5" s="2"/>
@@ -4808,7 +3720,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="20" t="s">
@@ -4864,7 +3776,7 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="20" t="s">
@@ -4920,7 +3832,7 @@
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="20" t="s">
@@ -4976,7 +3888,7 @@
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="20" t="s">
@@ -5032,7 +3944,7 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="20" t="s">
@@ -5088,7 +4000,7 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="20" t="s">
@@ -5144,11 +4056,11 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.25">
@@ -5200,11 +4112,11 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.25">
@@ -5256,11 +4168,11 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S15" s="14"/>
       <c r="T15" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.25">
@@ -5312,11 +4224,11 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S16" s="14"/>
       <c r="T16" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="20.25">
@@ -5368,11 +4280,11 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S17" s="14"/>
       <c r="T17" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="20.25">
@@ -5424,11 +4336,11 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S18" s="14"/>
       <c r="T18" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="20.25">
@@ -5480,11 +4392,11 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="20.25">
@@ -5536,11 +4448,11 @@
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="20.25">
@@ -5592,11 +4504,11 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="20.25">
@@ -5648,11 +4560,11 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="20.25">
@@ -5704,11 +4616,11 @@
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -5759,15 +4671,15 @@
         <v>106</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -5822,11 +4734,11 @@
       </c>
       <c r="Q25" s="14"/>
       <c r="R25" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -5881,11 +4793,11 @@
       </c>
       <c r="Q26" s="14"/>
       <c r="R26" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -5940,11 +4852,11 @@
       </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -5999,7 +4911,7 @@
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S28" s="15"/>
       <c r="T28" s="20" t="s">
@@ -6054,15 +4966,15 @@
         <v>106</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -6117,11 +5029,11 @@
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -6176,11 +5088,11 @@
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -6235,11 +5147,11 @@
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -6294,11 +5206,11 @@
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -6349,15 +5261,15 @@
         <v>106</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -6412,11 +5324,11 @@
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -6471,11 +5383,11 @@
       </c>
       <c r="Q36" s="14"/>
       <c r="R36" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -6526,15 +5438,15 @@
         <v>106</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -6585,15 +5497,15 @@
         <v>106</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -6644,15 +5556,15 @@
         <v>106</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -6703,15 +5615,15 @@
         <v>106</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -6762,15 +5674,15 @@
         <v>106</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -6825,11 +5737,11 @@
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -6880,15 +5792,15 @@
         <v>106</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="20.25">
@@ -6940,11 +5852,11 @@
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S44" s="14"/>
       <c r="T44" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="20.25">
@@ -6989,18 +5901,18 @@
         <v>45</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S45" s="14"/>
       <c r="T45" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="20.25">
@@ -7045,18 +5957,18 @@
         <v>46</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="20.25">
@@ -7108,11 +6020,11 @@
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="20.25">
@@ -7160,15 +6072,15 @@
         <v>106</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="20.25">
@@ -7216,15 +6128,15 @@
         <v>106</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q49" s="14"/>
       <c r="R49" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="20.25">
@@ -7276,11 +6188,11 @@
       </c>
       <c r="Q50" s="14"/>
       <c r="R50" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S50" s="14"/>
       <c r="T50" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="20.25">
@@ -7332,11 +6244,11 @@
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S51" s="14"/>
       <c r="T51" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="20.25">
@@ -7384,15 +6296,15 @@
         <v>106</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S52" s="14"/>
       <c r="T52" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="20.25">
@@ -7440,15 +6352,15 @@
         <v>106</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="20.25">
@@ -7496,15 +6408,15 @@
         <v>106</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q54" s="14"/>
       <c r="R54" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S54" s="14"/>
       <c r="T54" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="20.25">
@@ -7552,15 +6464,15 @@
         <v>106</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q55" s="14"/>
       <c r="R55" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="20.25">
@@ -7608,15 +6520,15 @@
         <v>106</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S56" s="14"/>
       <c r="T56" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="20.25">
@@ -7664,15 +6576,15 @@
         <v>106</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="20.25">
@@ -7720,15 +6632,15 @@
         <v>106</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q58" s="14"/>
       <c r="R58" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S58" s="14"/>
       <c r="T58" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="20.25">
@@ -7776,15 +6688,15 @@
         <v>106</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q59" s="14"/>
       <c r="R59" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="20.25">
@@ -7832,15 +6744,15 @@
         <v>106</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q60" s="14"/>
       <c r="R60" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S60" s="14"/>
       <c r="T60" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="20.25">
@@ -7888,15 +6800,15 @@
         <v>106</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q61" s="14"/>
       <c r="R61" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="20.25">
@@ -7944,15 +6856,15 @@
         <v>106</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S62" s="14"/>
       <c r="T62" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="20.25">
@@ -8004,11 +6916,11 @@
       </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S63" s="14"/>
       <c r="T63" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="20.25">
@@ -8056,15 +6968,15 @@
         <v>106</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S64" s="14"/>
       <c r="T64" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="20.25">
@@ -8112,15 +7024,15 @@
         <v>106</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q65" s="14"/>
       <c r="R65" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S65" s="14"/>
       <c r="T65" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="20.25">
@@ -8168,15 +7080,15 @@
         <v>106</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q66" s="14"/>
       <c r="R66" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S66" s="14"/>
       <c r="T66" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="20.25">
@@ -8224,15 +7136,15 @@
         <v>106</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q67" s="14"/>
       <c r="R67" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S67" s="14"/>
       <c r="T67" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="20.25">
@@ -8280,15 +7192,15 @@
         <v>106</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.25">
@@ -8336,15 +7248,15 @@
         <v>106</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q69" s="14"/>
       <c r="R69" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S69" s="14"/>
       <c r="T69" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="20.25">
@@ -8396,11 +7308,11 @@
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S70" s="14"/>
       <c r="T70" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="20.25">
@@ -8452,11 +7364,11 @@
       </c>
       <c r="Q71" s="14"/>
       <c r="R71" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="20.25">
@@ -8508,11 +7420,11 @@
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S72" s="14"/>
       <c r="T72" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="20.25">
@@ -8560,15 +7472,15 @@
         <v>106</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q73" s="14"/>
       <c r="R73" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S73" s="14"/>
       <c r="T73" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="20.25">
@@ -8616,15 +7528,15 @@
         <v>106</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q74" s="14"/>
       <c r="R74" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S74" s="14"/>
       <c r="T74" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="20.25">
@@ -8672,15 +7584,15 @@
         <v>106</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q75" s="14"/>
       <c r="R75" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="20.25">
@@ -8728,15 +7640,15 @@
         <v>106</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q76" s="14"/>
       <c r="R76" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S76" s="14"/>
       <c r="T76" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="20.25">
@@ -8781,18 +7693,18 @@
         <v>77</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q77" s="14"/>
       <c r="R77" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S77" s="14"/>
       <c r="T77" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="20.25">
@@ -8840,15 +7752,15 @@
         <v>106</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q78" s="14"/>
       <c r="R78" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S78" s="14"/>
       <c r="T78" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="20.25">
@@ -8900,11 +7812,11 @@
       </c>
       <c r="Q79" s="14"/>
       <c r="R79" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="20.25">
@@ -8956,11 +7868,11 @@
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S80" s="14"/>
       <c r="T80" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="20.25">
@@ -9012,11 +7924,11 @@
       </c>
       <c r="Q81" s="14"/>
       <c r="R81" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S81" s="14"/>
       <c r="T81" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="20.25">
@@ -9068,11 +7980,11 @@
       </c>
       <c r="Q82" s="14"/>
       <c r="R82" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S82" s="14"/>
       <c r="T82" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="20.25">
@@ -9124,11 +8036,11 @@
       </c>
       <c r="Q83" s="14"/>
       <c r="R83" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S83" s="14"/>
       <c r="T83" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="20.25">
@@ -9180,11 +8092,11 @@
       </c>
       <c r="Q84" s="14"/>
       <c r="R84" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S84" s="14"/>
       <c r="T84" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="20.25">
@@ -9232,15 +8144,15 @@
         <v>106</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q85" s="14"/>
       <c r="R85" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S85" s="14"/>
       <c r="T85" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="20.25">
@@ -9292,11 +8204,11 @@
       </c>
       <c r="Q86" s="14"/>
       <c r="R86" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S86" s="14"/>
       <c r="T86" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="20.25">
@@ -9348,11 +8260,11 @@
       </c>
       <c r="Q87" s="14"/>
       <c r="R87" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S87" s="14"/>
       <c r="T87" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="20.25">
@@ -9400,15 +8312,15 @@
         <v>106</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q88" s="14"/>
       <c r="R88" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S88" s="14"/>
       <c r="T88" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="20.25">
@@ -9456,15 +8368,15 @@
         <v>106</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q89" s="14"/>
       <c r="R89" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S89" s="14"/>
       <c r="T89" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="20.25">
@@ -9516,11 +8428,11 @@
       </c>
       <c r="Q90" s="14"/>
       <c r="R90" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S90" s="14"/>
       <c r="T90" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="20.25">
@@ -9568,15 +8480,15 @@
         <v>106</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q91" s="14"/>
       <c r="R91" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S91" s="14"/>
       <c r="T91" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="20.25">
@@ -9624,15 +8536,15 @@
         <v>106</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q92" s="14"/>
       <c r="R92" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S92" s="14"/>
       <c r="T92" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="20.25">
@@ -9680,15 +8592,15 @@
         <v>106</v>
       </c>
       <c r="P93" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q93" s="14"/>
       <c r="R93" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S93" s="14"/>
       <c r="T93" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="20.25">
@@ -9740,11 +8652,11 @@
       </c>
       <c r="Q94" s="14"/>
       <c r="R94" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S94" s="14"/>
       <c r="T94" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="20.25">
@@ -9792,15 +8704,15 @@
         <v>106</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q95" s="14"/>
       <c r="R95" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S95" s="14"/>
       <c r="T95" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20.25">
@@ -9852,11 +8764,11 @@
       </c>
       <c r="Q96" s="14"/>
       <c r="R96" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S96" s="14"/>
       <c r="T96" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="20.25">
@@ -9908,11 +8820,11 @@
       </c>
       <c r="Q97" s="14"/>
       <c r="R97" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S97" s="14"/>
       <c r="T97" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="20.25">
@@ -9964,11 +8876,11 @@
       </c>
       <c r="Q98" s="14"/>
       <c r="R98" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S98" s="14"/>
       <c r="T98" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="20.25">
@@ -10016,15 +8928,15 @@
         <v>106</v>
       </c>
       <c r="P99" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q99" s="14"/>
       <c r="R99" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S99" s="14"/>
       <c r="T99" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="20.25">
@@ -10076,11 +8988,11 @@
       </c>
       <c r="Q100" s="14"/>
       <c r="R100" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S100" s="14"/>
       <c r="T100" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20.25">
@@ -10128,15 +9040,15 @@
         <v>106</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q101" s="14"/>
       <c r="R101" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S101" s="14"/>
       <c r="T101" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20.25">
@@ -10188,11 +9100,11 @@
       </c>
       <c r="Q102" s="14"/>
       <c r="R102" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S102" s="14"/>
       <c r="T102" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20.25">
@@ -10244,11 +9156,11 @@
       </c>
       <c r="Q103" s="14"/>
       <c r="R103" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S103" s="14"/>
       <c r="T103" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20.25">
@@ -10296,15 +9208,15 @@
         <v>106</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q104" s="14"/>
       <c r="R104" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S104" s="14"/>
       <c r="T104" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="20.25">
@@ -10352,15 +9264,15 @@
         <v>106</v>
       </c>
       <c r="P105" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q105" s="14"/>
       <c r="R105" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S105" s="14"/>
       <c r="T105" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -10368,6 +9280,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -10376,10 +9292,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:N105">
     <cfRule type="colorScale" priority="10">
@@ -10511,484 +9423,484 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11003,8 +9915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="I14:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11021,7 +9933,7 @@
   </cols>
   <sheetData>
     <row r="14" spans="9:15" ht="51">
-      <c r="I14" s="39"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="45" t="s">
         <v>0</v>
       </c>
@@ -11039,19 +9951,19 @@
       <c r="I15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="24" t="s">
         <v>107</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="25" t="s">
         <v>107</v>
       </c>
       <c r="M15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="25" t="s">
         <v>107</v>
       </c>
       <c r="O15" s="11" t="s">
@@ -11062,19 +9974,19 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="42" t="s">
+      <c r="J16" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="43" t="s">
+      <c r="N16" s="27" t="s">
         <v>105</v>
       </c>
       <c r="O16" s="8" t="s">
@@ -11085,19 +9997,19 @@
       <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="42" t="s">
+      <c r="J17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O17" s="8" t="s">
@@ -11108,19 +10020,19 @@
       <c r="I18" s="4">
         <v>2</v>
       </c>
-      <c r="J18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="42" t="s">
+      <c r="J18" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="27" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="8" t="s">
@@ -11131,19 +10043,19 @@
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="42" t="s">
+      <c r="J19" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="27" t="s">
         <v>9</v>
       </c>
       <c r="O19" s="8" t="s">
@@ -11154,19 +10066,19 @@
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="44" t="s">
+      <c r="J20" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="8" t="s">
@@ -11177,19 +10089,19 @@
       <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21" s="43" t="s">
+      <c r="M21" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="O21" s="8" t="s">
@@ -11200,19 +10112,19 @@
       <c r="I22" s="4">
         <v>6</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="27" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="6" t="s">
@@ -11223,19 +10135,19 @@
       <c r="I23" s="4">
         <v>7</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="27" t="s">
         <v>13</v>
       </c>
       <c r="O23" s="6" t="s">
@@ -11246,19 +10158,19 @@
       <c r="I24" s="4">
         <v>8</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="28" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="43" t="s">
+      <c r="N24" s="27" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="6" t="s">
@@ -11269,19 +10181,19 @@
       <c r="I25" s="4">
         <v>9</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N25" s="43" t="s">
+      <c r="L25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="27" t="s">
         <v>15</v>
       </c>
       <c r="O25" s="6" t="s">
@@ -11292,22 +10204,22 @@
       <c r="I26" s="4">
         <v>10</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" s="43" t="s">
+      <c r="M26" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="26" t="s">
         <v>106</v>
       </c>
     </row>
@@ -11315,19 +10227,19 @@
       <c r="I27" s="4">
         <v>11</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O27" s="6" t="s">
@@ -11338,19 +10250,19 @@
       <c r="I28" s="4">
         <v>12</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="43" t="s">
+      <c r="N28" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O28" s="6" t="s">
@@ -11361,19 +10273,19 @@
       <c r="I29" s="4">
         <v>13</v>
       </c>
-      <c r="J29" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="43" t="s">
+      <c r="J29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="O29" s="6" t="s">
@@ -11384,19 +10296,19 @@
       <c r="I30" s="4">
         <v>14</v>
       </c>
-      <c r="J30" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" s="42" t="s">
+      <c r="J30" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="43" t="s">
+      <c r="N30" s="27" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="6" t="s">
@@ -11407,19 +10319,19 @@
       <c r="I31" s="4">
         <v>15</v>
       </c>
-      <c r="J31" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N31" s="43" t="s">
+      <c r="J31" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" s="27" t="s">
         <v>21</v>
       </c>
       <c r="O31" s="6" t="s">
@@ -11430,19 +10342,19 @@
       <c r="I32" s="4">
         <v>16</v>
       </c>
-      <c r="J32" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="42" t="s">
+      <c r="J32" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="27" t="s">
         <v>22</v>
       </c>
       <c r="O32" s="6" t="s">
@@ -11453,19 +10365,19 @@
       <c r="I33" s="4">
         <v>17</v>
       </c>
-      <c r="J33" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L33" s="44" t="s">
+      <c r="J33" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N33" s="43" t="s">
+      <c r="M33" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="27" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="6" t="s">
@@ -11476,19 +10388,19 @@
       <c r="I34" s="4">
         <v>18</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="44" t="s">
+      <c r="K34" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="43" t="s">
+      <c r="M34" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="27" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="6" t="s">
@@ -11499,19 +10411,19 @@
       <c r="I35" s="4">
         <v>19</v>
       </c>
-      <c r="J35" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="42" t="s">
+      <c r="J35" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="43" t="s">
+      <c r="N35" s="27" t="s">
         <v>25</v>
       </c>
       <c r="O35" s="6" t="s">
@@ -11522,19 +10434,19 @@
       <c r="I36" s="4">
         <v>20</v>
       </c>
-      <c r="J36" s="42" t="s">
+      <c r="J36" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="28" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="43" t="s">
+      <c r="N36" s="27" t="s">
         <v>26</v>
       </c>
       <c r="O36" s="6" t="s">
@@ -11545,19 +10457,19 @@
       <c r="I37" s="4">
         <v>21</v>
       </c>
-      <c r="J37" s="42" t="s">
+      <c r="J37" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="44" t="s">
+      <c r="L37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N37" s="42" t="s">
+      <c r="M37" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O37" s="6" t="s">
@@ -11568,19 +10480,19 @@
       <c r="I38" s="4">
         <v>22</v>
       </c>
-      <c r="J38" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" s="44" t="s">
+      <c r="J38" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="28" t="s">
         <v>28</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N38" s="42" t="s">
+      <c r="N38" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O38" s="6" t="s">
@@ -11591,19 +10503,19 @@
       <c r="I39" s="4">
         <v>23</v>
       </c>
-      <c r="J39" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" s="42" t="s">
+      <c r="J39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="43" t="s">
+      <c r="N39" s="27" t="s">
         <v>29</v>
       </c>
       <c r="O39" s="6" t="s">
@@ -11614,19 +10526,19 @@
       <c r="I40" s="4">
         <v>24</v>
       </c>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="43" t="s">
+      <c r="N40" s="27" t="s">
         <v>30</v>
       </c>
       <c r="O40" s="6" t="s">
@@ -11637,19 +10549,19 @@
       <c r="I41" s="4">
         <v>25</v>
       </c>
-      <c r="J41" s="42" t="s">
+      <c r="J41" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L41" s="44" t="s">
+      <c r="L41" s="28" t="s">
         <v>31</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="43" t="s">
+      <c r="N41" s="27" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="6" t="s">
@@ -11660,19 +10572,19 @@
       <c r="I42" s="4">
         <v>26</v>
       </c>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="44" t="s">
+      <c r="L42" s="28" t="s">
         <v>32</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N42" s="43" t="s">
+      <c r="N42" s="27" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="6" t="s">
@@ -11683,19 +10595,19 @@
       <c r="I43" s="4">
         <v>27</v>
       </c>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="44" t="s">
+      <c r="L43" s="28" t="s">
         <v>33</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="43" t="s">
+      <c r="N43" s="27" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="6" t="s">
@@ -11706,19 +10618,19 @@
       <c r="I44" s="4">
         <v>28</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="42" t="s">
+      <c r="L44" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="43" t="s">
+      <c r="N44" s="27" t="s">
         <v>34</v>
       </c>
       <c r="O44" s="6" t="s">
@@ -11729,19 +10641,19 @@
       <c r="I45" s="4">
         <v>29</v>
       </c>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="44" t="s">
+      <c r="L45" s="28" t="s">
         <v>35</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N45" s="43" t="s">
+      <c r="N45" s="27" t="s">
         <v>35</v>
       </c>
       <c r="O45" s="6" t="s">
@@ -11752,19 +10664,19 @@
       <c r="I46" s="4">
         <v>30</v>
       </c>
-      <c r="J46" s="42" t="s">
+      <c r="J46" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="44" t="s">
+      <c r="L46" s="28" t="s">
         <v>36</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="43" t="s">
+      <c r="N46" s="27" t="s">
         <v>36</v>
       </c>
       <c r="O46" s="6" t="s">
@@ -11775,19 +10687,19 @@
       <c r="I47" s="4">
         <v>31</v>
       </c>
-      <c r="J47" s="42" t="s">
+      <c r="J47" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L47" s="44" t="s">
+      <c r="L47" s="28" t="s">
         <v>37</v>
       </c>
       <c r="M47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N47" s="42" t="s">
+      <c r="N47" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O47" s="6" t="s">
@@ -11798,19 +10710,19 @@
       <c r="I48" s="4">
         <v>32</v>
       </c>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L48" s="44" t="s">
+      <c r="L48" s="28" t="s">
         <v>38</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N48" s="43" t="s">
+      <c r="N48" s="27" t="s">
         <v>38</v>
       </c>
       <c r="O48" s="6" t="s">
@@ -11821,19 +10733,19 @@
       <c r="I49" s="4">
         <v>33</v>
       </c>
-      <c r="J49" s="42" t="s">
+      <c r="J49" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L49" s="44" t="s">
+      <c r="L49" s="28" t="s">
         <v>39</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N49" s="43" t="s">
+      <c r="N49" s="27" t="s">
         <v>39</v>
       </c>
       <c r="O49" s="6" t="s">
@@ -11844,19 +10756,19 @@
       <c r="I50" s="4">
         <v>34</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="28" t="s">
         <v>40</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="44" t="s">
+      <c r="L50" s="28" t="s">
         <v>40</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="43" t="s">
+      <c r="N50" s="27" t="s">
         <v>40</v>
       </c>
       <c r="O50" s="6" t="s">
@@ -11867,19 +10779,19 @@
       <c r="I51" s="4">
         <v>35</v>
       </c>
-      <c r="J51" s="42" t="s">
+      <c r="J51" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="44" t="s">
+      <c r="L51" s="28" t="s">
         <v>41</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N51" s="43" t="s">
+      <c r="N51" s="27" t="s">
         <v>41</v>
       </c>
       <c r="O51" s="6" t="s">
@@ -11890,19 +10802,19 @@
       <c r="I52" s="4">
         <v>36</v>
       </c>
-      <c r="J52" s="42" t="s">
+      <c r="J52" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L52" s="44" t="s">
+      <c r="L52" s="28" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N52" s="43" t="s">
+      <c r="N52" s="27" t="s">
         <v>42</v>
       </c>
       <c r="O52" s="6" t="s">
@@ -11913,19 +10825,19 @@
       <c r="I53" s="4">
         <v>37</v>
       </c>
-      <c r="J53" s="42" t="s">
+      <c r="J53" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="44" t="s">
+      <c r="L53" s="28" t="s">
         <v>43</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="43" t="s">
+      <c r="N53" s="27" t="s">
         <v>43</v>
       </c>
       <c r="O53" s="6" t="s">
@@ -11936,19 +10848,19 @@
       <c r="I54" s="4">
         <v>38</v>
       </c>
-      <c r="J54" s="42" t="s">
+      <c r="J54" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L54" s="42" t="s">
+      <c r="L54" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O54" s="6" t="s">
@@ -11959,19 +10871,19 @@
       <c r="I55" s="4">
         <v>39</v>
       </c>
-      <c r="J55" s="42" t="s">
+      <c r="J55" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L55" s="44" t="s">
+      <c r="L55" s="28" t="s">
         <v>45</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N55" s="43" t="s">
+      <c r="N55" s="27" t="s">
         <v>45</v>
       </c>
       <c r="O55" s="6" t="s">
@@ -11982,19 +10894,19 @@
       <c r="I56" s="4">
         <v>40</v>
       </c>
-      <c r="J56" s="42" t="s">
+      <c r="J56" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="44" t="s">
+      <c r="L56" s="28" t="s">
         <v>46</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N56" s="43" t="s">
+      <c r="N56" s="27" t="s">
         <v>46</v>
       </c>
       <c r="O56" s="6" t="s">
@@ -12005,19 +10917,19 @@
       <c r="I57" s="4">
         <v>41</v>
       </c>
-      <c r="J57" s="44" t="s">
+      <c r="J57" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L57" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M57" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N57" s="42" t="s">
+      <c r="L57" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O57" s="6" t="s">
@@ -12028,19 +10940,19 @@
       <c r="I58" s="4">
         <v>42</v>
       </c>
-      <c r="J58" s="44" t="s">
+      <c r="J58" s="28" t="s">
         <v>48</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L58" s="44" t="s">
+      <c r="L58" s="28" t="s">
         <v>48</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N58" s="43" t="s">
+      <c r="N58" s="27" t="s">
         <v>48</v>
       </c>
       <c r="O58" s="6" t="s">
@@ -12051,19 +10963,19 @@
       <c r="I59" s="4">
         <v>43</v>
       </c>
-      <c r="J59" s="44" t="s">
+      <c r="J59" s="28" t="s">
         <v>49</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L59" s="42" t="s">
+      <c r="L59" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="42" t="s">
+      <c r="N59" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O59" s="6" t="s">
@@ -12074,19 +10986,19 @@
       <c r="I60" s="4">
         <v>44</v>
       </c>
-      <c r="J60" s="42" t="s">
+      <c r="J60" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L60" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M60" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N60" s="43" t="s">
+      <c r="L60" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" s="27" t="s">
         <v>50</v>
       </c>
       <c r="O60" s="6" t="s">
@@ -12097,19 +11009,19 @@
       <c r="I61" s="4">
         <v>45</v>
       </c>
-      <c r="J61" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K61" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L61" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M61" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N61" s="43" t="s">
+      <c r="J61" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" s="27" t="s">
         <v>51</v>
       </c>
       <c r="O61" s="6" t="s">
@@ -12120,19 +11032,19 @@
       <c r="I62" s="4">
         <v>46</v>
       </c>
-      <c r="J62" s="42" t="s">
+      <c r="J62" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L62" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M62" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N62" s="43" t="s">
+      <c r="L62" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" s="27" t="s">
         <v>52</v>
       </c>
       <c r="O62" s="6" t="s">
@@ -12143,19 +11055,19 @@
       <c r="I63" s="4">
         <v>47</v>
       </c>
-      <c r="J63" s="42" t="s">
+      <c r="J63" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L63" s="42" t="s">
+      <c r="L63" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N63" s="43" t="s">
+      <c r="N63" s="27" t="s">
         <v>53</v>
       </c>
       <c r="O63" s="6" t="s">
@@ -12166,19 +11078,19 @@
       <c r="I64" s="4">
         <v>48</v>
       </c>
-      <c r="J64" s="42" t="s">
+      <c r="J64" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L64" s="42" t="s">
+      <c r="L64" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N64" s="43" t="s">
+      <c r="N64" s="27" t="s">
         <v>54</v>
       </c>
       <c r="O64" s="6" t="s">
@@ -12189,19 +11101,19 @@
       <c r="I65" s="4">
         <v>49</v>
       </c>
-      <c r="J65" s="42" t="s">
+      <c r="J65" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L65" s="42" t="s">
+      <c r="L65" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N65" s="43" t="s">
+      <c r="N65" s="27" t="s">
         <v>55</v>
       </c>
       <c r="O65" s="6" t="s">
@@ -12212,19 +11124,19 @@
       <c r="I66" s="4">
         <v>50</v>
       </c>
-      <c r="J66" s="42" t="s">
+      <c r="J66" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L66" s="44" t="s">
+      <c r="L66" s="28" t="s">
         <v>56</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N66" s="43" t="s">
+      <c r="N66" s="27" t="s">
         <v>56</v>
       </c>
       <c r="O66" s="6" t="s">
@@ -12235,19 +11147,19 @@
       <c r="I67" s="4">
         <v>51</v>
       </c>
-      <c r="J67" s="42" t="s">
+      <c r="J67" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L67" s="44" t="s">
+      <c r="L67" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N67" s="42" t="s">
+      <c r="N67" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="6" t="s">
@@ -12258,19 +11170,19 @@
       <c r="I68" s="4">
         <v>52</v>
       </c>
-      <c r="J68" s="42" t="s">
+      <c r="J68" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L68" s="42" t="s">
+      <c r="L68" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N68" s="43" t="s">
+      <c r="N68" s="27" t="s">
         <v>58</v>
       </c>
       <c r="O68" s="6" t="s">
@@ -12281,19 +11193,19 @@
       <c r="I69" s="4">
         <v>53</v>
       </c>
-      <c r="J69" s="42" t="s">
+      <c r="J69" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L69" s="42" t="s">
+      <c r="L69" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N69" s="43" t="s">
+      <c r="N69" s="27" t="s">
         <v>59</v>
       </c>
       <c r="O69" s="6" t="s">
@@ -12304,19 +11216,19 @@
       <c r="I70" s="4">
         <v>54</v>
       </c>
-      <c r="J70" s="42" t="s">
+      <c r="J70" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L70" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M70" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N70" s="43" t="s">
+      <c r="L70" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" s="27" t="s">
         <v>60</v>
       </c>
       <c r="O70" s="6" t="s">
@@ -12327,19 +11239,19 @@
       <c r="I71" s="4">
         <v>55</v>
       </c>
-      <c r="J71" s="42" t="s">
+      <c r="J71" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L71" s="42" t="s">
+      <c r="L71" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N71" s="43" t="s">
+      <c r="N71" s="27" t="s">
         <v>61</v>
       </c>
       <c r="O71" s="6" t="s">
@@ -12350,19 +11262,19 @@
       <c r="I72" s="4">
         <v>56</v>
       </c>
-      <c r="J72" s="42" t="s">
+      <c r="J72" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L72" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M72" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N72" s="43" t="s">
+      <c r="L72" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N72" s="27" t="s">
         <v>62</v>
       </c>
       <c r="O72" s="6" t="s">
@@ -12373,19 +11285,19 @@
       <c r="I73" s="4">
         <v>57</v>
       </c>
-      <c r="J73" s="44" t="s">
+      <c r="J73" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L73" s="44" t="s">
+      <c r="L73" s="28" t="s">
         <v>63</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N73" s="43" t="s">
+      <c r="N73" s="27" t="s">
         <v>63</v>
       </c>
       <c r="O73" s="6" t="s">
@@ -12396,19 +11308,19 @@
       <c r="I74" s="4">
         <v>58</v>
       </c>
-      <c r="J74" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L74" s="44" t="s">
+      <c r="J74" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L74" s="28" t="s">
         <v>64</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N74" s="43" t="s">
+      <c r="N74" s="27" t="s">
         <v>64</v>
       </c>
       <c r="O74" s="6" t="s">
@@ -12419,19 +11331,19 @@
       <c r="I75" s="4">
         <v>59</v>
       </c>
-      <c r="J75" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K75" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L75" s="44" t="s">
+      <c r="J75" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L75" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="M75" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N75" s="43" t="s">
+      <c r="M75" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N75" s="27" t="s">
         <v>65</v>
       </c>
       <c r="O75" s="6" t="s">
@@ -12442,19 +11354,19 @@
       <c r="I76" s="4">
         <v>60</v>
       </c>
-      <c r="J76" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L76" s="44" t="s">
+      <c r="J76" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L76" s="28" t="s">
         <v>66</v>
       </c>
       <c r="M76" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N76" s="43" t="s">
+      <c r="N76" s="27" t="s">
         <v>66</v>
       </c>
       <c r="O76" s="6" t="s">
@@ -12465,19 +11377,19 @@
       <c r="I77" s="4">
         <v>61</v>
       </c>
-      <c r="J77" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K77" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L77" s="44" t="s">
+      <c r="J77" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L77" s="28" t="s">
         <v>67</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N77" s="42" t="s">
+      <c r="N77" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="6" t="s">
@@ -12488,19 +11400,19 @@
       <c r="I78" s="4">
         <v>62</v>
       </c>
-      <c r="J78" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L78" s="42" t="s">
+      <c r="J78" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K78" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L78" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N78" s="43" t="s">
+      <c r="N78" s="27" t="s">
         <v>68</v>
       </c>
       <c r="O78" s="6" t="s">
@@ -12511,19 +11423,19 @@
       <c r="I79" s="4">
         <v>63</v>
       </c>
-      <c r="J79" s="42" t="s">
+      <c r="J79" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L79" s="42" t="s">
+      <c r="L79" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N79" s="43" t="s">
+      <c r="N79" s="27" t="s">
         <v>69</v>
       </c>
       <c r="O79" s="6" t="s">
@@ -12534,19 +11446,19 @@
       <c r="I80" s="4">
         <v>64</v>
       </c>
-      <c r="J80" s="42" t="s">
+      <c r="J80" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L80" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M80" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N80" s="43" t="s">
+      <c r="L80" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80" s="27" t="s">
         <v>70</v>
       </c>
       <c r="O80" s="6" t="s">
@@ -12557,19 +11469,19 @@
       <c r="I81" s="4">
         <v>65</v>
       </c>
-      <c r="J81" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K81" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L81" s="44" t="s">
+      <c r="J81" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L81" s="28" t="s">
         <v>71</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N81" s="43" t="s">
+      <c r="N81" s="27" t="s">
         <v>71</v>
       </c>
       <c r="O81" s="6" t="s">
@@ -12580,19 +11492,19 @@
       <c r="I82" s="4">
         <v>66</v>
       </c>
-      <c r="J82" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K82" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L82" s="44" t="s">
+      <c r="J82" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L82" s="28" t="s">
         <v>72</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N82" s="43" t="s">
+      <c r="N82" s="27" t="s">
         <v>72</v>
       </c>
       <c r="O82" s="6" t="s">
@@ -12603,19 +11515,19 @@
       <c r="I83" s="4">
         <v>67</v>
       </c>
-      <c r="J83" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K83" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L83" s="44" t="s">
+      <c r="J83" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L83" s="28" t="s">
         <v>73</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N83" s="43" t="s">
+      <c r="N83" s="27" t="s">
         <v>73</v>
       </c>
       <c r="O83" s="6" t="s">
@@ -12626,19 +11538,19 @@
       <c r="I84" s="4">
         <v>68</v>
       </c>
-      <c r="J84" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K84" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L84" s="42" t="s">
+      <c r="J84" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K84" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L84" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N84" s="43" t="s">
+      <c r="N84" s="27" t="s">
         <v>74</v>
       </c>
       <c r="O84" s="6" t="s">
@@ -12649,19 +11561,19 @@
       <c r="I85" s="4">
         <v>69</v>
       </c>
-      <c r="J85" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="K85" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L85" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M85" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N85" s="43" t="s">
+      <c r="J85" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K85" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M85" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N85" s="27" t="s">
         <v>75</v>
       </c>
       <c r="O85" s="6" t="s">
@@ -12672,19 +11584,19 @@
       <c r="I86" s="4">
         <v>70</v>
       </c>
-      <c r="J86" s="42" t="s">
+      <c r="J86" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K86" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L86" s="42" t="s">
+      <c r="L86" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M86" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N86" s="43" t="s">
+      <c r="N86" s="27" t="s">
         <v>76</v>
       </c>
       <c r="O86" s="6" t="s">
@@ -12695,19 +11607,19 @@
       <c r="I87" s="4">
         <v>71</v>
       </c>
-      <c r="J87" s="42" t="s">
+      <c r="J87" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L87" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M87" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N87" s="42" t="s">
+      <c r="L87" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M87" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N87" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O87" s="6" t="s">
@@ -12718,19 +11630,19 @@
       <c r="I88" s="4">
         <v>72</v>
       </c>
-      <c r="J88" s="42" t="s">
+      <c r="J88" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L88" s="44" t="s">
+      <c r="L88" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="M88" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N88" s="43" t="s">
+      <c r="M88" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N88" s="27" t="s">
         <v>78</v>
       </c>
       <c r="O88" s="6" t="s">
@@ -12741,22 +11653,22 @@
       <c r="I89" s="4">
         <v>73</v>
       </c>
-      <c r="J89" s="42" t="s">
+      <c r="J89" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K89" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L89" s="44" t="s">
+      <c r="L89" s="28" t="s">
         <v>79</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N89" s="43" t="s">
+      <c r="N89" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="O89" s="42" t="s">
+      <c r="O89" s="26" t="s">
         <v>106</v>
       </c>
     </row>
@@ -12764,19 +11676,19 @@
       <c r="I90" s="4">
         <v>74</v>
       </c>
-      <c r="J90" s="42" t="s">
+      <c r="J90" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K90" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L90" s="42" t="s">
+      <c r="L90" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N90" s="43" t="s">
+      <c r="N90" s="27" t="s">
         <v>80</v>
       </c>
       <c r="O90" s="6" t="s">
@@ -12787,19 +11699,19 @@
       <c r="I91" s="4">
         <v>75</v>
       </c>
-      <c r="J91" s="42" t="s">
+      <c r="J91" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="L91" s="44" t="s">
+      <c r="L91" s="28" t="s">
         <v>81</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N91" s="43" t="s">
+      <c r="N91" s="27" t="s">
         <v>81</v>
       </c>
       <c r="O91" s="6" t="s">
@@ -12810,19 +11722,19 @@
       <c r="I92" s="4">
         <v>76</v>
       </c>
-      <c r="J92" s="42" t="s">
+      <c r="J92" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L92" s="44" t="s">
+      <c r="L92" s="28" t="s">
         <v>82</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N92" s="43" t="s">
+      <c r="N92" s="27" t="s">
         <v>82</v>
       </c>
       <c r="O92" s="6" t="s">
@@ -12833,19 +11745,19 @@
       <c r="I93" s="4">
         <v>77</v>
       </c>
-      <c r="J93" s="42" t="s">
+      <c r="J93" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L93" s="44" t="s">
+      <c r="L93" s="28" t="s">
         <v>83</v>
       </c>
       <c r="M93" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N93" s="43" t="s">
+      <c r="N93" s="27" t="s">
         <v>83</v>
       </c>
       <c r="O93" s="6" t="s">
@@ -12856,19 +11768,19 @@
       <c r="I94" s="4">
         <v>78</v>
       </c>
-      <c r="J94" s="44" t="s">
+      <c r="J94" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="K94" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L94" s="44" t="s">
+      <c r="K94" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L94" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M94" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N94" s="43" t="s">
+      <c r="M94" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N94" s="27" t="s">
         <v>84</v>
       </c>
       <c r="O94" s="6" t="s">
@@ -12879,19 +11791,19 @@
       <c r="I95" s="4">
         <v>79</v>
       </c>
-      <c r="J95" s="44" t="s">
+      <c r="J95" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K95" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L95" s="44" t="s">
+      <c r="K95" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L95" s="28" t="s">
         <v>85</v>
       </c>
       <c r="M95" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N95" s="43" t="s">
+      <c r="N95" s="27" t="s">
         <v>85</v>
       </c>
       <c r="O95" s="6" t="s">
@@ -12902,19 +11814,19 @@
       <c r="I96" s="4">
         <v>80</v>
       </c>
-      <c r="J96" s="44" t="s">
+      <c r="J96" s="28" t="s">
         <v>86</v>
       </c>
       <c r="K96" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="L96" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M96" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N96" s="43" t="s">
+      <c r="L96" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M96" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N96" s="27" t="s">
         <v>86</v>
       </c>
       <c r="O96" s="6" t="s">
@@ -12925,19 +11837,19 @@
       <c r="I97" s="4">
         <v>81</v>
       </c>
-      <c r="J97" s="44" t="s">
+      <c r="J97" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K97" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L97" s="44" t="s">
+      <c r="K97" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L97" s="28" t="s">
         <v>87</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N97" s="43" t="s">
+      <c r="N97" s="27" t="s">
         <v>87</v>
       </c>
       <c r="O97" s="6" t="s">
@@ -12948,19 +11860,19 @@
       <c r="I98" s="4">
         <v>82</v>
       </c>
-      <c r="J98" s="44" t="s">
+      <c r="J98" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="K98" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L98" s="44" t="s">
+      <c r="K98" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L98" s="28" t="s">
         <v>88</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N98" s="43" t="s">
+      <c r="N98" s="27" t="s">
         <v>88</v>
       </c>
       <c r="O98" s="6" t="s">
@@ -12971,19 +11883,19 @@
       <c r="I99" s="4">
         <v>83</v>
       </c>
-      <c r="J99" s="44" t="s">
+      <c r="J99" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="K99" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L99" s="42" t="s">
+      <c r="K99" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L99" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N99" s="43" t="s">
+      <c r="N99" s="27" t="s">
         <v>89</v>
       </c>
       <c r="O99" s="6" t="s">
@@ -12994,19 +11906,19 @@
       <c r="I100" s="4">
         <v>84</v>
       </c>
-      <c r="J100" s="44" t="s">
+      <c r="J100" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K100" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L100" s="44" t="s">
+      <c r="K100" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L100" s="28" t="s">
         <v>90</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N100" s="43" t="s">
+      <c r="N100" s="27" t="s">
         <v>90</v>
       </c>
       <c r="O100" s="6" t="s">
@@ -13017,19 +11929,19 @@
       <c r="I101" s="4">
         <v>85</v>
       </c>
-      <c r="J101" s="44" t="s">
+      <c r="J101" s="28" t="s">
         <v>91</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L101" s="42" t="s">
+      <c r="L101" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M101" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N101" s="43" t="s">
+      <c r="N101" s="27" t="s">
         <v>91</v>
       </c>
       <c r="O101" s="6" t="s">
@@ -13040,19 +11952,19 @@
       <c r="I102" s="4">
         <v>86</v>
       </c>
-      <c r="J102" s="44" t="s">
+      <c r="J102" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K102" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L102" s="44" t="s">
+      <c r="L102" s="28" t="s">
         <v>92</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N102" s="43" t="s">
+      <c r="N102" s="27" t="s">
         <v>92</v>
       </c>
       <c r="O102" s="6" t="s">
@@ -13063,19 +11975,19 @@
       <c r="I103" s="4">
         <v>87</v>
       </c>
-      <c r="J103" s="44" t="s">
+      <c r="J103" s="28" t="s">
         <v>93</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L103" s="44" t="s">
+      <c r="L103" s="28" t="s">
         <v>93</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N103" s="43" t="s">
+      <c r="N103" s="27" t="s">
         <v>93</v>
       </c>
       <c r="O103" s="6" t="s">
@@ -13086,19 +11998,19 @@
       <c r="I104" s="4">
         <v>88</v>
       </c>
-      <c r="J104" s="44" t="s">
+      <c r="J104" s="28" t="s">
         <v>94</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L104" s="44" t="s">
+      <c r="L104" s="28" t="s">
         <v>94</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N104" s="43" t="s">
+      <c r="N104" s="27" t="s">
         <v>94</v>
       </c>
       <c r="O104" s="6" t="s">
@@ -13109,19 +12021,19 @@
       <c r="I105" s="4">
         <v>89</v>
       </c>
-      <c r="J105" s="44" t="s">
+      <c r="J105" s="28" t="s">
         <v>95</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L105" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M105" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N105" s="43" t="s">
+      <c r="L105" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M105" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" s="27" t="s">
         <v>95</v>
       </c>
       <c r="O105" s="6" t="s">
@@ -13132,19 +12044,19 @@
       <c r="I106" s="4">
         <v>90</v>
       </c>
-      <c r="J106" s="44" t="s">
+      <c r="J106" s="28" t="s">
         <v>96</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L106" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M106" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N106" s="43" t="s">
+      <c r="L106" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M106" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N106" s="27" t="s">
         <v>96</v>
       </c>
       <c r="O106" s="6" t="s">
@@ -13155,19 +12067,19 @@
       <c r="I107" s="4">
         <v>91</v>
       </c>
-      <c r="J107" s="44" t="s">
+      <c r="J107" s="28" t="s">
         <v>97</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L107" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M107" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N107" s="43" t="s">
+      <c r="L107" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M107" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N107" s="27" t="s">
         <v>97</v>
       </c>
       <c r="O107" s="6" t="s">
@@ -13178,19 +12090,19 @@
       <c r="I108" s="4">
         <v>92</v>
       </c>
-      <c r="J108" s="44" t="s">
+      <c r="J108" s="28" t="s">
         <v>98</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L108" s="44" t="s">
+      <c r="L108" s="28" t="s">
         <v>98</v>
       </c>
       <c r="M108" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N108" s="42" t="s">
+      <c r="N108" s="26" t="s">
         <v>106</v>
       </c>
       <c r="O108" s="6" t="s">
@@ -13201,19 +12113,19 @@
       <c r="I109" s="4">
         <v>93</v>
       </c>
-      <c r="J109" s="44" t="s">
+      <c r="J109" s="28" t="s">
         <v>99</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L109" s="44" t="s">
+      <c r="L109" s="28" t="s">
         <v>99</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N109" s="43" t="s">
+      <c r="N109" s="27" t="s">
         <v>99</v>
       </c>
       <c r="O109" s="6" t="s">
@@ -13224,19 +12136,19 @@
       <c r="I110" s="4">
         <v>94</v>
       </c>
-      <c r="J110" s="44" t="s">
+      <c r="J110" s="28" t="s">
         <v>100</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L110" s="42" t="s">
+      <c r="L110" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M110" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N110" s="43" t="s">
+      <c r="N110" s="27" t="s">
         <v>100</v>
       </c>
       <c r="O110" s="6" t="s">
@@ -13247,19 +12159,19 @@
       <c r="I111" s="4">
         <v>95</v>
       </c>
-      <c r="J111" s="44" t="s">
+      <c r="J111" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L111" s="42" t="s">
+      <c r="L111" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M111" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N111" s="43" t="s">
+      <c r="N111" s="27" t="s">
         <v>6</v>
       </c>
       <c r="O111" s="6" t="s">
@@ -13270,19 +12182,19 @@
       <c r="I112" s="4">
         <v>96</v>
       </c>
-      <c r="J112" s="44" t="s">
+      <c r="J112" s="28" t="s">
         <v>101</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L112" s="42" t="s">
+      <c r="L112" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M112" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N112" s="43" t="s">
+      <c r="N112" s="27" t="s">
         <v>101</v>
       </c>
       <c r="O112" s="6" t="s">
@@ -13293,19 +12205,19 @@
       <c r="I113" s="4">
         <v>97</v>
       </c>
-      <c r="J113" s="44" t="s">
+      <c r="J113" s="28" t="s">
         <v>102</v>
       </c>
       <c r="K113" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L113" s="42" t="s">
+      <c r="L113" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M113" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N113" s="43" t="s">
+      <c r="N113" s="27" t="s">
         <v>102</v>
       </c>
       <c r="O113" s="6" t="s">
@@ -13316,19 +12228,19 @@
       <c r="I114" s="4">
         <v>98</v>
       </c>
-      <c r="J114" s="44" t="s">
+      <c r="J114" s="28" t="s">
         <v>103</v>
       </c>
       <c r="K114" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L114" s="42" t="s">
+      <c r="L114" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M114" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="N114" s="43" t="s">
+      <c r="N114" s="27" t="s">
         <v>103</v>
       </c>
       <c r="O114" s="6" t="s">
@@ -13339,19 +12251,19 @@
       <c r="I115" s="4">
         <v>99</v>
       </c>
-      <c r="J115" s="42" t="s">
+      <c r="J115" s="26" t="s">
         <v>106</v>
       </c>
       <c r="K115" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L115" s="42" t="s">
+      <c r="L115" s="26" t="s">
         <v>106</v>
       </c>
       <c r="M115" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N115" s="43" t="s">
+      <c r="N115" s="27" t="s">
         <v>104</v>
       </c>
       <c r="O115" s="6" t="s">
@@ -15376,15 +14288,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:G453"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="E455" sqref="E455"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
@@ -15392,7 +14304,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15400,103 +14312,187 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="F3">
+        <v>1.53</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(B1:B100,F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="F4">
+        <v>1.93</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="0">COUNTIF(B2:B101,F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5">
+        <v>2.29</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6">
+        <v>2.62</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="F7">
+        <v>2.93</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="F9">
+        <v>3.45</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="F10">
+        <v>3.67</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="F11">
+        <v>3.86</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="F12">
+        <v>4.03</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="F13">
+        <v>4.17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="F14">
+        <v>4.29</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>15</v>
       </c>
@@ -15504,7 +14500,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>16</v>
       </c>
@@ -17947,6 +16943,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="F3:F14">
+    <sortCondition ref="F3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17954,560 +16953,966 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:C513"/>
+  <dimension ref="B2:G513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="2" spans="2:7">
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="3:3">
+      <c r="F3">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(C3:C102, F3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="F4">
+        <v>-1.54</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="0">COUNTIF(C4:C103, F4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="C5">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="F5">
+        <v>-0.94</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>4</v>
+      </c>
       <c r="C6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="F6">
+        <v>-0.38</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="C7">
         <v>-0.94</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="F7">
+        <v>0.15</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(C8:C107, F7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>6</v>
+      </c>
       <c r="C8">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
+      <c r="F8">
+        <v>0.65</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(C9:C108, F8)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>7</v>
+      </c>
       <c r="C9">
         <v>-0.94</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
+      <c r="F9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(C10:C109, F9)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10">
         <v>-0.94</v>
       </c>
-    </row>
-    <row r="11" spans="3:3">
+      <c r="F10">
+        <v>1.53</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(C11:C110, F10)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11">
         <v>-0.94</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
+      <c r="F11">
+        <v>1.93</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(C12:C111, F11)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="13" spans="3:3">
+      <c r="F12">
+        <v>2.29</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(C13:C112, F12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>11</v>
+      </c>
       <c r="C13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="3:3">
+      <c r="F13">
+        <v>2.62</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(C14:C113, F13)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>12</v>
+      </c>
       <c r="C14">
         <v>-1.54</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
+      <c r="F14">
+        <v>2.93</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(C15:C114, F14)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>13</v>
+      </c>
       <c r="C15">
         <v>-2.1800000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="3:3">
+      <c r="F15">
+        <v>3.2</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(C16:C115, F15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>14</v>
+      </c>
       <c r="C16">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="F16">
+        <v>4.38</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(C17:C116, F16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>15</v>
+      </c>
       <c r="C17">
         <v>-0.38</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>16</v>
+      </c>
       <c r="C18">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>17</v>
+      </c>
       <c r="C19">
         <v>1.93</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>18</v>
+      </c>
       <c r="C20">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>19</v>
+      </c>
       <c r="C21">
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>20</v>
+      </c>
       <c r="C22">
         <v>0.65</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>21</v>
+      </c>
       <c r="C23">
         <v>1.53</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>22</v>
+      </c>
       <c r="C24">
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>23</v>
+      </c>
       <c r="C25">
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>24</v>
+      </c>
       <c r="C26">
         <v>1.53</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>25</v>
+      </c>
       <c r="C27">
         <v>1.93</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>26</v>
+      </c>
       <c r="C28">
         <v>1.53</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>27</v>
+      </c>
       <c r="C29">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>28</v>
+      </c>
       <c r="C30">
         <v>1.93</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>29</v>
+      </c>
       <c r="C31">
         <v>2.62</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>30</v>
+      </c>
       <c r="C32">
         <v>2.62</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>31</v>
+      </c>
       <c r="C33">
         <v>2.29</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>32</v>
+      </c>
       <c r="C34">
         <v>1.53</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>33</v>
+      </c>
       <c r="C35">
         <v>-0.38</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>34</v>
+      </c>
       <c r="C36">
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>35</v>
+      </c>
       <c r="C37">
         <v>0.65</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>36</v>
+      </c>
       <c r="C38">
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>37</v>
+      </c>
       <c r="C39">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>38</v>
+      </c>
       <c r="C40">
         <v>1.53</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>39</v>
+      </c>
       <c r="C41">
         <v>2.29</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>40</v>
+      </c>
       <c r="C42">
         <v>2.93</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>41</v>
+      </c>
       <c r="C43">
         <v>2.93</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>42</v>
+      </c>
       <c r="C44">
         <v>2.93</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>43</v>
+      </c>
       <c r="C45">
         <v>3.2</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>44</v>
+      </c>
       <c r="C46">
         <v>2.62</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>45</v>
+      </c>
       <c r="C47">
         <v>2.62</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>46</v>
+      </c>
       <c r="C48">
         <v>2.93</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>47</v>
+      </c>
       <c r="C49">
         <v>2.62</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>48</v>
+      </c>
       <c r="C50">
         <v>2.29</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>49</v>
+      </c>
       <c r="C51">
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>50</v>
+      </c>
       <c r="C52">
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>51</v>
+      </c>
       <c r="C53">
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>52</v>
+      </c>
       <c r="C54">
         <v>-0.38</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>53</v>
+      </c>
       <c r="C55">
         <v>1.53</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>54</v>
+      </c>
       <c r="C56">
         <v>4.38</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>55</v>
+      </c>
       <c r="C57">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>56</v>
+      </c>
       <c r="C58">
         <v>1.93</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>57</v>
+      </c>
       <c r="C59">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>58</v>
+      </c>
       <c r="C60">
         <v>2.29</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>59</v>
+      </c>
       <c r="C61">
         <v>2.62</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>60</v>
+      </c>
       <c r="C62">
         <v>2.93</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>61</v>
+      </c>
       <c r="C63">
         <v>2.93</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>62</v>
+      </c>
       <c r="C64">
         <v>2.93</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>63</v>
+      </c>
       <c r="C65">
         <v>3.2</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>64</v>
+      </c>
       <c r="C66">
         <v>2.93</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>65</v>
+      </c>
       <c r="C67">
         <v>2.93</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>66</v>
+      </c>
       <c r="C68">
         <v>2.29</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>67</v>
+      </c>
       <c r="C69">
         <v>2.29</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>68</v>
+      </c>
       <c r="C70">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>69</v>
+      </c>
       <c r="C71">
         <v>1.53</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>70</v>
+      </c>
       <c r="C72">
         <v>0.15</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>71</v>
+      </c>
       <c r="C73">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>72</v>
+      </c>
       <c r="C74">
         <v>1.53</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>73</v>
+      </c>
       <c r="C75">
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>74</v>
+      </c>
       <c r="C76">
         <v>1.53</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>75</v>
+      </c>
       <c r="C77">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>76</v>
+      </c>
       <c r="C78">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>77</v>
+      </c>
       <c r="C79">
         <v>2.29</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>78</v>
+      </c>
       <c r="C80">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>79</v>
+      </c>
       <c r="C81">
         <v>2.62</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>80</v>
+      </c>
       <c r="C82">
         <v>2.29</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>81</v>
+      </c>
       <c r="C83">
         <v>2.62</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="2:3">
+      <c r="B84">
+        <v>82</v>
+      </c>
       <c r="C84">
         <v>2.29</v>
       </c>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="2:3">
+      <c r="B85">
+        <v>83</v>
+      </c>
       <c r="C85">
         <v>2.62</v>
       </c>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="2:3">
+      <c r="B86">
+        <v>84</v>
+      </c>
       <c r="C86">
         <v>2.62</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="2:3">
+      <c r="B87">
+        <v>85</v>
+      </c>
       <c r="C87">
         <v>1.53</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="2:3">
+      <c r="B88">
+        <v>86</v>
+      </c>
       <c r="C88">
         <v>2.62</v>
       </c>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="2:3">
+      <c r="B89">
+        <v>87</v>
+      </c>
       <c r="C89">
         <v>2.29</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>88</v>
+      </c>
       <c r="C90">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>89</v>
+      </c>
       <c r="C91">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>90</v>
+      </c>
       <c r="C92">
         <v>1.93</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>91</v>
+      </c>
       <c r="C93">
         <v>1.53</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="2:3">
+      <c r="B94">
+        <v>92</v>
+      </c>
       <c r="C94">
         <v>1.53</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="2:3">
+      <c r="B95">
+        <v>93</v>
+      </c>
       <c r="C95">
         <v>1.93</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>94</v>
+      </c>
       <c r="C96">
         <v>1.93</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>95</v>
+      </c>
       <c r="C97">
         <v>1.93</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="2:3">
+      <c r="B98">
+        <v>96</v>
+      </c>
       <c r="C98">
         <v>1.93</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="2:3">
+      <c r="B99">
+        <v>97</v>
+      </c>
       <c r="C99">
         <v>2.29</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="2:3">
+      <c r="B100">
+        <v>98</v>
+      </c>
       <c r="C100">
         <v>2.62</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="2:3">
+      <c r="B101">
+        <v>99</v>
+      </c>
       <c r="C101">
         <v>2.62</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="2:3">
+      <c r="B102">
+        <v>100</v>
+      </c>
       <c r="C102">
         <v>2.62</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="2:3">
       <c r="C103">
         <v>2.29</v>
       </c>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="2:3">
       <c r="C104">
         <v>2.29</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="2:3">
       <c r="C105">
         <v>2.29</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="2:3">
       <c r="C106">
         <v>1.93</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="2:3">
       <c r="C107">
         <v>1.93</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="2:3">
       <c r="C108">
         <v>1.93</v>
       </c>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="2:3">
       <c r="C109">
         <v>1.93</v>
       </c>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="2:3">
       <c r="C110">
         <v>1.53</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="2:3">
       <c r="C111">
         <v>1.53</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="2:3">
       <c r="C112">
         <v>1.93</v>
       </c>
@@ -20518,6 +19923,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="F3:G17">
+    <sortCondition ref="F3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
+++ b/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OutDoor" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,17 @@
     <sheet name="CP_distribution" sheetId="5" r:id="rId5"/>
     <sheet name="BomList" sheetId="6" r:id="rId6"/>
     <sheet name="CP2-EbyteStation" sheetId="7" r:id="rId7"/>
+    <sheet name="EByte2-EbyteStation" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Value">'CP2-EbyteStation'!$D$14:$D$170</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="386">
   <si>
     <t>SF5</t>
   </si>
@@ -1615,6 +1615,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1643,27 +1664,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,24 +2020,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126049280"/>
-        <c:axId val="126083840"/>
+        <c:axId val="133455232"/>
+        <c:axId val="133993600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126049280"/>
+        <c:axId val="133455232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126083840"/>
+        <c:crossAx val="133993600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126083840"/>
+        <c:axId val="133993600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2045,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126049280"/>
+        <c:crossAx val="133455232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,7 +2057,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2089,6 +2089,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2232,25 +2233,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="126349312"/>
-        <c:axId val="126350848"/>
+        <c:axId val="133951872"/>
+        <c:axId val="133953408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126349312"/>
+        <c:axId val="133951872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126350848"/>
+        <c:crossAx val="133953408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126350848"/>
+        <c:axId val="133953408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,19 +2260,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126349312"/>
+        <c:crossAx val="133951872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2297,6 +2299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2304,10 +2307,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1166524878838308E-2"/>
-          <c:y val="0.32917083554771948"/>
+          <c:x val="6.116652487883837E-2"/>
+          <c:y val="0.32917083554771975"/>
           <c:w val="0.93883347512116178"/>
-          <c:h val="0.5779413272015077"/>
+          <c:h val="0.57794132720150804"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2507,25 +2510,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="126845696"/>
-        <c:axId val="126847232"/>
+        <c:axId val="134427776"/>
+        <c:axId val="134429312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126845696"/>
+        <c:axId val="134427776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126847232"/>
+        <c:crossAx val="134429312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126847232"/>
+        <c:axId val="134429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,25 +2536,236 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126845696"/>
+        <c:crossAx val="134427776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2783762029746281E-2"/>
+          <c:y val="0.16431962416980744"/>
+          <c:w val="0.89036948381452319"/>
+          <c:h val="0.52202710427424437"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>CP_distribution!$G$23:$G$44</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.726818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.111363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.688181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.072727273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.457272727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.649545455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.034090909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.226363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CP_distribution!$H$23:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="36359552"/>
+        <c:axId val="73509120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="36359552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73509120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73509120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36359552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42931026488067303"/>
+          <c:y val="0.18296628306077126"/>
+          <c:w val="0.31037224226624699"/>
+          <c:h val="0.35709315566323441"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2662,11 +2876,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126859520"/>
-        <c:axId val="127091072"/>
+        <c:axId val="140384896"/>
+        <c:axId val="140407552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126859520"/>
+        <c:axId val="140384896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,14 +2904,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127091072"/>
+        <c:crossAx val="140407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127091072"/>
+        <c:axId val="140407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2936,226 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126859520"/>
+        <c:crossAx val="140384896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13298047205522612"/>
+          <c:y val="0.12356497759411406"/>
+          <c:w val="0.67833590014958489"/>
+          <c:h val="0.59210476250705557"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EByte2-EbyteStation'!$I$7:$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>377796.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377828.2046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377843.8869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377859.5692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>377875.2515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377890.9338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>377906.6162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>377922.2985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>377937.9808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>377953.6631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377969.3454</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>377985.0277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EByte2-EbyteStation'!$J$7:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="140612352"/>
+        <c:axId val="140614272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="140612352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140614272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="140614272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,6 +3635,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3209,20 +3672,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327991</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3554,70 +4052,70 @@
   <sheetData>
     <row r="3" spans="1:20" ht="50.25">
       <c r="B3" s="19"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="49" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" ht="39">
       <c r="A4" s="3"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="52" t="s">
+      <c r="N4" s="47"/>
+      <c r="O4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="37" t="s">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="52" t="s">
+      <c r="R4" s="45"/>
+      <c r="S4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="43"/>
     </row>
     <row r="5" spans="1:20" ht="32.25">
       <c r="A5" s="2"/>
@@ -9743,113 +10241,108 @@
       <c r="R106" s="13"/>
     </row>
     <row r="108" spans="1:20">
-      <c r="I108" s="47" t="s">
+      <c r="I108" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="J108" s="48"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="48"/>
-      <c r="O108" s="48"/>
-      <c r="P108" s="48"/>
-      <c r="Q108" s="48"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="38"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
+      <c r="Q108" s="38"/>
     </row>
     <row r="109" spans="1:20">
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="48"/>
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
-      <c r="Q109" s="48"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="38"/>
+      <c r="N109" s="38"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
+      <c r="Q109" s="38"/>
     </row>
     <row r="110" spans="1:20">
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="48"/>
-      <c r="N110" s="48"/>
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
-      <c r="Q110" s="48"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
     </row>
     <row r="111" spans="1:20">
-      <c r="I111" s="48"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="48"/>
-      <c r="N111" s="48"/>
-      <c r="O111" s="48"/>
-      <c r="P111" s="48"/>
-      <c r="Q111" s="48"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
+      <c r="N111" s="38"/>
+      <c r="O111" s="38"/>
+      <c r="P111" s="38"/>
+      <c r="Q111" s="38"/>
     </row>
     <row r="112" spans="1:20">
-      <c r="I112" s="48"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="48"/>
-      <c r="L112" s="48"/>
-      <c r="M112" s="48"/>
-      <c r="N112" s="48"/>
-      <c r="O112" s="48"/>
-      <c r="P112" s="48"/>
-      <c r="Q112" s="48"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
     </row>
     <row r="113" spans="9:17">
-      <c r="I113" s="48"/>
-      <c r="J113" s="48"/>
-      <c r="K113" s="48"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="48"/>
-      <c r="N113" s="48"/>
-      <c r="O113" s="48"/>
-      <c r="P113" s="48"/>
-      <c r="Q113" s="48"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="38"/>
+      <c r="O113" s="38"/>
+      <c r="P113" s="38"/>
+      <c r="Q113" s="38"/>
     </row>
     <row r="114" spans="9:17">
-      <c r="I114" s="48"/>
-      <c r="J114" s="48"/>
-      <c r="K114" s="48"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="48"/>
-      <c r="N114" s="48"/>
-      <c r="O114" s="48"/>
-      <c r="P114" s="48"/>
-      <c r="Q114" s="48"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="38"/>
+      <c r="O114" s="38"/>
+      <c r="P114" s="38"/>
+      <c r="Q114" s="38"/>
     </row>
     <row r="115" spans="9:17">
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
-      <c r="L115" s="48"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
-      <c r="O115" s="48"/>
-      <c r="P115" s="48"/>
-      <c r="Q115" s="48"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+      <c r="O115" s="38"/>
+      <c r="P115" s="38"/>
+      <c r="Q115" s="38"/>
     </row>
     <row r="116" spans="9:17">
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="48"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
-      <c r="O116" s="48"/>
-      <c r="P116" s="48"/>
-      <c r="Q116" s="48"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I108:Q116"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -9858,6 +10351,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I108:Q116"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:N105">
     <cfRule type="colorScale" priority="10">
@@ -9988,38 +10486,38 @@
   </cols>
   <sheetData>
     <row r="4" spans="9:15">
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="9:15">
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="9:15">
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="9:15">
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="14" spans="9:15" ht="51">
       <c r="I14" s="21"/>
@@ -14388,506 +14886,506 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="28" spans="2:19" ht="64.5">
       <c r="H28" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="33" spans="22:40">
       <c r="V33" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
       <c r="AJ33" s="57" t="s">
         <v>213</v>
       </c>
@@ -14897,13 +15395,13 @@
       <c r="AN33" s="57"/>
     </row>
     <row r="34" spans="22:40">
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
       <c r="AJ34" s="57"/>
       <c r="AK34" s="57"/>
       <c r="AL34" s="57"/>
@@ -14911,13 +15409,13 @@
       <c r="AN34" s="57"/>
     </row>
     <row r="35" spans="22:40">
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
       <c r="AJ35" s="57"/>
       <c r="AK35" s="57"/>
       <c r="AL35" s="57"/>
@@ -14928,10 +15426,10 @@
       <c r="I63" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
     </row>
     <row r="65" spans="24:30" ht="15" customHeight="1">
       <c r="X65" s="57" t="s">
@@ -14981,8 +15479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z1052"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20581,11 +21079,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:P497"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:14">
       <c r="D1">
@@ -20815,7 +21316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="4:16">
+    <row r="21" spans="4:16" ht="15.75" thickBot="1">
       <c r="D21">
         <v>0.65</v>
       </c>
@@ -20824,134 +21325,244 @@
       <c r="D22">
         <v>0.65</v>
       </c>
+      <c r="G22" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="23" spans="4:16">
       <c r="D23">
         <v>0.65</v>
       </c>
+      <c r="G23" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="H23" s="28">
+        <v>8</v>
+      </c>
+      <c r="I23" s="29">
+        <v>1.6096579476861168E-2</v>
+      </c>
     </row>
     <row r="24" spans="4:16">
       <c r="D24">
         <v>0.65</v>
       </c>
+      <c r="G24" s="28">
+        <v>0.72681818181818181</v>
+      </c>
+      <c r="H24" s="28">
+        <v>17</v>
+      </c>
+      <c r="I24" s="29">
+        <v>5.030181086519115E-2</v>
+      </c>
     </row>
     <row r="25" spans="4:16">
       <c r="D25">
         <v>0.65</v>
       </c>
+      <c r="G25" s="28">
+        <v>1.1113636363636363</v>
+      </c>
+      <c r="H25" s="28">
+        <v>21</v>
+      </c>
+      <c r="I25" s="29">
+        <v>9.2555331991951706E-2</v>
+      </c>
     </row>
     <row r="26" spans="4:16">
       <c r="D26">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G26" s="28">
+        <v>1.688181818181818</v>
+      </c>
+      <c r="H26" s="28">
+        <v>36</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0.16498993963782696</v>
+      </c>
     </row>
     <row r="27" spans="4:16">
       <c r="D27">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G27" s="28">
+        <v>2.0727272727272728</v>
+      </c>
+      <c r="H27" s="28">
+        <v>78</v>
+      </c>
+      <c r="I27" s="29">
+        <v>0.32193158953722334</v>
+      </c>
     </row>
     <row r="28" spans="4:16">
       <c r="D28">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G28" s="28">
+        <v>2.4572727272727271</v>
+      </c>
+      <c r="H28" s="28">
+        <v>139</v>
+      </c>
+      <c r="I28" s="29">
+        <v>0.60160965794768617</v>
+      </c>
     </row>
     <row r="29" spans="4:16">
       <c r="D29">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G29" s="28">
+        <v>2.6495454545454544</v>
+      </c>
+      <c r="H29" s="28">
+        <v>151</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0.90543259557344069</v>
+      </c>
     </row>
     <row r="30" spans="4:16">
       <c r="D30">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G30" s="28">
+        <v>3.0340909090909087</v>
+      </c>
+      <c r="H30" s="28">
+        <v>44</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0.99396378269617702</v>
+      </c>
     </row>
     <row r="31" spans="4:16">
       <c r="D31">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="4:16">
+      <c r="G31" s="28">
+        <v>3.2263636363636361</v>
+      </c>
+      <c r="H31" s="28">
+        <v>2</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0.99798792756539234</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" ht="15.75" thickBot="1">
       <c r="D32">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="4:8">
+      <c r="G32" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="30">
+        <v>1</v>
+      </c>
+      <c r="I32" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
       <c r="D33">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
+    <row r="34" spans="4:9">
       <c r="D34">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="4:8">
+    <row r="35" spans="4:9">
       <c r="D35">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="36" spans="4:8">
+    <row r="36" spans="4:9">
       <c r="D36">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="4:8">
+    <row r="37" spans="4:9">
       <c r="D37">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
+    <row r="38" spans="4:9">
       <c r="D38">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="4:8">
+    <row r="39" spans="4:9">
       <c r="D39">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="4:8">
+    <row r="40" spans="4:9">
       <c r="D40">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="41" spans="4:8">
+    <row r="41" spans="4:9">
       <c r="D41">
         <v>1.1100000000000001</v>
       </c>
+      <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="4:8">
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="4:9">
       <c r="D42">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="4:8">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="4:9">
       <c r="D43">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="4:8">
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="4:9">
       <c r="D44">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="4:8">
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="4:9">
       <c r="D45">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="4:8">
+    <row r="46" spans="4:9">
       <c r="D46">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" spans="4:9">
       <c r="D47">
         <v>1.53</v>
       </c>
     </row>
-    <row r="48" spans="4:8">
+    <row r="48" spans="4:9">
       <c r="D48">
         <v>1.53</v>
       </c>
@@ -23209,7 +23820,8 @@
     <mergeCell ref="J17:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24086,8 +24698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B9:O170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25727,4 +26339,1163 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:L190"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="6" spans="3:11">
+      <c r="C6">
+        <v>377907.12</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7">
+        <v>377908.15</v>
+      </c>
+      <c r="I7" s="28">
+        <v>377796.84</v>
+      </c>
+      <c r="J7" s="28">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>5.4054054054054057E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8">
+        <v>377905.62</v>
+      </c>
+      <c r="I8" s="28">
+        <v>377828.20461538463</v>
+      </c>
+      <c r="J8" s="28">
+        <v>1</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1.0810810810810811E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9">
+        <v>377906.9</v>
+      </c>
+      <c r="I9" s="28">
+        <v>377843.88692307693</v>
+      </c>
+      <c r="J9" s="28">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1.6216216216216217E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10">
+        <v>377904.81</v>
+      </c>
+      <c r="I10" s="28">
+        <v>377859.56923076924</v>
+      </c>
+      <c r="J10" s="28">
+        <v>2</v>
+      </c>
+      <c r="K10" s="29">
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11">
+        <v>377899.28</v>
+      </c>
+      <c r="I11" s="28">
+        <v>377875.25153846154</v>
+      </c>
+      <c r="J11" s="28">
+        <v>2</v>
+      </c>
+      <c r="K11" s="29">
+        <v>3.783783783783784E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12">
+        <v>377896.84</v>
+      </c>
+      <c r="I12" s="28">
+        <v>377890.93384615384</v>
+      </c>
+      <c r="J12" s="28">
+        <v>5</v>
+      </c>
+      <c r="K12" s="29">
+        <v>6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13">
+        <v>377890.15</v>
+      </c>
+      <c r="I13" s="28">
+        <v>377906.6161538462</v>
+      </c>
+      <c r="J13" s="28">
+        <v>22</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.18378378378378379</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14">
+        <v>377889.46</v>
+      </c>
+      <c r="I14" s="28">
+        <v>377922.29846153851</v>
+      </c>
+      <c r="J14" s="28">
+        <v>50</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0.45405405405405408</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15">
+        <v>377922.31</v>
+      </c>
+      <c r="I15" s="28">
+        <v>377937.98076923081</v>
+      </c>
+      <c r="J15" s="28">
+        <v>60</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.77837837837837842</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16">
+        <v>377919.56</v>
+      </c>
+      <c r="I16" s="28">
+        <v>377953.66307692311</v>
+      </c>
+      <c r="J16" s="28">
+        <v>21</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0.89189189189189189</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17">
+        <v>377918.03</v>
+      </c>
+      <c r="I17" s="28">
+        <v>377969.34538461542</v>
+      </c>
+      <c r="J17" s="28">
+        <v>14</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.96756756756756757</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18">
+        <v>377915.75</v>
+      </c>
+      <c r="I18" s="28">
+        <v>377985.02769230772</v>
+      </c>
+      <c r="J18" s="28">
+        <v>5</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.99459459459459465</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C19">
+        <v>377913.96</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1</v>
+      </c>
+      <c r="K19" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20">
+        <v>377913.75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21">
+        <v>377913.62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22">
+        <v>377916.71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23">
+        <v>377918.37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24">
+        <v>377918.28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25">
+        <v>377918.12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26">
+        <v>377916.15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C27">
+        <v>377913.28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28">
+        <v>377909.15</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29">
+        <v>377969.62</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30">
+        <v>377926.84</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="L30" s="28">
+        <v>377923.2420000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31">
+        <v>377915.78</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="L31" s="28">
+        <v>1.9419503326985574</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32">
+        <v>377911</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="L32" s="28">
+        <v>377924.34</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33">
+        <v>377907.5</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="L33" s="28">
+        <v>377925.03</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34">
+        <v>377903.09</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="L34" s="28">
+        <v>26.413380179628412</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35">
+        <v>377934.93</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="L35" s="28">
+        <v>697.666652513587</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36">
+        <v>377926.25</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="L36" s="28">
+        <v>4.5450480429498059</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37">
+        <v>377917.87</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="L37" s="28">
+        <v>-1.0482507106557881</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38">
+        <v>377916.43</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="L38" s="28">
+        <v>203.86999999999534</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39">
+        <v>377913.87</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="L39" s="28">
+        <v>377796.84</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40">
+        <v>377912.9</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="L40" s="28">
+        <v>378000.71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41">
+        <v>377912.28</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" s="28">
+        <v>69915799.770000041</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42">
+        <v>377909.34</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="28">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C43">
+        <v>377906.87</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" s="30">
+        <v>3.831352460614784</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44">
+        <v>377906.87</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45">
+        <v>377905.21</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46">
+        <v>377903.65</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47">
+        <v>377905.15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48">
+        <v>377902.93</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>377901.65</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>377919.06</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>377945.71</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>377933.31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>377927.12</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>377925.31</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>377923.84000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>377928.34</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>377945.25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58">
+        <v>377953.15</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59">
+        <v>377959.84</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60">
+        <v>377933.46</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61">
+        <v>377927.75</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62">
+        <v>377929.06</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63">
+        <v>377935.78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64">
+        <v>377936.78</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65">
+        <v>377932.96</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66">
+        <v>377930.5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67">
+        <v>377925.68</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68">
+        <v>377922.84</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69">
+        <v>377923.81</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70">
+        <v>377925.03</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71">
+        <v>377926.28</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72">
+        <v>377929.75</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73">
+        <v>377929.84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74">
+        <v>377928.84</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75">
+        <v>377926.68</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76">
+        <v>377923.31</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77">
+        <v>377919.81</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78">
+        <v>377916.65</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79">
+        <v>377915.12</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80">
+        <v>377913.25</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <v>377913.5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82">
+        <v>377913.68</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83">
+        <v>377916.53</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84">
+        <v>377922.34</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85">
+        <v>377932.37</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86">
+        <v>377937.28</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87">
+        <v>377933.09</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88">
+        <v>377931.09</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89">
+        <v>377927.06</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90">
+        <v>377926.31</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91">
+        <v>377926.71</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92">
+        <v>377928.03</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93">
+        <v>377929.65</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94">
+        <v>377924.62</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95">
+        <v>377911.78</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96">
+        <v>377901.68</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97">
+        <v>377872.81</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98">
+        <v>377813.71</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99">
+        <v>377796.84</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100">
+        <v>377937.9</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101">
+        <v>377850.21</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102">
+        <v>377965.37</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103">
+        <v>377932.03</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104">
+        <v>377910.87</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105">
+        <v>377893.75</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106">
+        <v>377879.5</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107">
+        <v>377903.53</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108">
+        <v>377913.5</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109">
+        <v>377922.68</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110">
+        <v>377924.34</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111">
+        <v>377928.59</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112">
+        <v>377929.9</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113">
+        <v>377933.62</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114">
+        <v>377935</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115">
+        <v>377939.84</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116">
+        <v>377943.18</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117">
+        <v>377952.71</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118">
+        <v>377946.31</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119">
+        <v>377937.81</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120">
+        <v>377944.25</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121">
+        <v>377950.31</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122">
+        <v>377957.28</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123">
+        <v>377964.25</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124">
+        <v>377972.75</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125">
+        <v>377965</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126">
+        <v>377939.65</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127">
+        <v>377926.31</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128">
+        <v>377914.15</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129">
+        <v>377911.68</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130">
+        <v>377909.21</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131">
+        <v>377912.65</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132">
+        <v>377914.46</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133">
+        <v>377933.87</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134">
+        <v>377948.78</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135">
+        <v>377951.96</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136">
+        <v>377954.84</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137">
+        <v>377950.09</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138">
+        <v>377950.65</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139">
+        <v>377951.46</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140">
+        <v>377953.43</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141">
+        <v>377954.78</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142">
+        <v>377955.03</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143">
+        <v>377956.21</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144">
+        <v>377961.9</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145">
+        <v>377980.62</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146">
+        <v>378000.71</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147">
+        <v>377972.65</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148">
+        <v>377915.71</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149">
+        <v>377906.68</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150">
+        <v>377904.28</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151">
+        <v>377904</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152">
+        <v>377904.78</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153">
+        <v>377905.46</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154">
+        <v>377906.31</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155">
+        <v>377911.28</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156">
+        <v>377923.46</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157">
+        <v>377929.18</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158">
+        <v>377935.75</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159">
+        <v>377957.21</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160">
+        <v>377968.81</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <v>377943.15</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162">
+        <v>377934.06</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163">
+        <v>377932.12</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164">
+        <v>377938.46</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165">
+        <v>377953.87</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166">
+        <v>377957.62</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167">
+        <v>377946.46</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168">
+        <v>377935.46</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169">
+        <v>377925.03</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170">
+        <v>377922.15</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171">
+        <v>377920.18</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172">
+        <v>377921.37</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173">
+        <v>377925.03</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174">
+        <v>377928.65</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175">
+        <v>377930.18</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176">
+        <v>377936.28</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177">
+        <v>377944</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178">
+        <v>377975.84</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179">
+        <v>377931.15</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180">
+        <v>377836.75</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181">
+        <v>377844.43</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182">
+        <v>377882.15</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183">
+        <v>377896.43</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184">
+        <v>377899.12</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185">
+        <v>377894.84</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186">
+        <v>377892</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187">
+        <v>377887.81</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188">
+        <v>377873.46</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189">
+        <v>377914.53</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190">
+        <v>377946.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
+++ b/tmp/measure/Report_ThayHuy/Report_ThayHuy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OutDoor" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="BomList" sheetId="6" r:id="rId6"/>
     <sheet name="CP2-EbyteStation" sheetId="7" r:id="rId7"/>
     <sheet name="EByte2-EbyteStation" sheetId="8" r:id="rId8"/>
+    <sheet name="RealMeasure" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Value">'CP2-EbyteStation'!$D$14:$D$170</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="387">
   <si>
     <t>SF5</t>
   </si>
@@ -1182,6 +1183,9 @@
   </si>
   <si>
     <t>Confidence Level(95.0%)</t>
+  </si>
+  <si>
+    <t>In room 6.8 to FPT</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1529,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1615,27 +1619,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,6 +1648,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,24 +2025,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133455232"/>
-        <c:axId val="133993600"/>
+        <c:axId val="131358080"/>
+        <c:axId val="131892352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133455232"/>
+        <c:axId val="131358080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133993600"/>
+        <c:crossAx val="131892352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133993600"/>
+        <c:axId val="131892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2050,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133455232"/>
+        <c:crossAx val="131358080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,7 +2062,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2233,25 +2238,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="133951872"/>
-        <c:axId val="133953408"/>
+        <c:axId val="131850624"/>
+        <c:axId val="131852160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133951872"/>
+        <c:axId val="131850624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133953408"/>
+        <c:crossAx val="131852160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133953408"/>
+        <c:axId val="131852160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +2265,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="133951872"/>
+        <c:crossAx val="131850624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,7 +2278,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2299,7 +2304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2307,10 +2311,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.116652487883837E-2"/>
-          <c:y val="0.32917083554771975"/>
+          <c:x val="6.1166524878838391E-2"/>
+          <c:y val="0.32917083554771986"/>
           <c:w val="0.93883347512116178"/>
-          <c:h val="0.57794132720150804"/>
+          <c:h val="0.57794132720150815"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2510,25 +2514,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="134427776"/>
-        <c:axId val="134429312"/>
+        <c:axId val="132338816"/>
+        <c:axId val="132340352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134427776"/>
+        <c:axId val="132338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134429312"/>
+        <c:crossAx val="132340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134429312"/>
+        <c:axId val="132340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,20 +2540,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="134427776"/>
+        <c:crossAx val="132338816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2575,7 +2578,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2584,7 +2586,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2783762029746281E-2"/>
-          <c:y val="0.16431962416980744"/>
+          <c:y val="0.16431962416980742"/>
           <c:w val="0.89036948381452319"/>
           <c:h val="0.52202710427424437"/>
         </c:manualLayout>
@@ -2676,11 +2678,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="36359552"/>
-        <c:axId val="73509120"/>
+        <c:axId val="132356736"/>
+        <c:axId val="132371200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36359552"/>
+        <c:axId val="132356736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,17 +2703,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73509120"/>
+        <c:crossAx val="132371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73509120"/>
+        <c:axId val="132371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,11 +2733,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36359552"/>
+        <c:crossAx val="132356736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2747,10 +2747,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42931026488067303"/>
-          <c:y val="0.18296628306077126"/>
-          <c:w val="0.31037224226624699"/>
-          <c:h val="0.35709315566323441"/>
+          <c:x val="0.4293102648806732"/>
+          <c:y val="0.18296628306077131"/>
+          <c:w val="0.3103722422662471"/>
+          <c:h val="0.35709315566323435"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2759,7 +2759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2785,7 +2785,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2876,11 +2875,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140384896"/>
-        <c:axId val="140407552"/>
+        <c:axId val="139125504"/>
+        <c:axId val="139127424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140384896"/>
+        <c:axId val="139125504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,17 +2900,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140407552"/>
+        <c:crossAx val="139127424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140407552"/>
+        <c:axId val="139127424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,25 +2930,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140384896"/>
+        <c:crossAx val="139125504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2976,7 +2972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2984,9 +2979,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13298047205522612"/>
-          <c:y val="0.12356497759411406"/>
-          <c:w val="0.67833590014958489"/>
+          <c:x val="0.13298047205522617"/>
+          <c:y val="0.12356497759411407"/>
+          <c:w val="0.67833590014958511"/>
           <c:h val="0.59210476250705557"/>
         </c:manualLayout>
       </c:layout>
@@ -3095,11 +3090,229 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="140612352"/>
-        <c:axId val="140614272"/>
+        <c:axId val="139201152"/>
+        <c:axId val="139223808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140612352"/>
+        <c:axId val="139201152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139223808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139223808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139201152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>RealMeasure!$K$37:$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-10.015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.803571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.004464286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.62053571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.02455357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.42857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.83258929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.23660714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.640625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.04464286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.44866071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.85267857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.06473214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RealMeasure!$L$37:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="7788416"/>
+        <c:axId val="35069952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="7788416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,14 +3336,14 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140614272"/>
+        <c:crossAx val="35069952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140614272"/>
+        <c:axId val="35069952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3368,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140612352"/>
+        <c:crossAx val="7788416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3382,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3738,6 +3951,135 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4468090" y="1524000"/>
+          <a:ext cx="4693227" cy="3532909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9923318" y="1524001"/>
+          <a:ext cx="5039591" cy="3550226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4052,70 +4394,70 @@
   <sheetData>
     <row r="3" spans="1:20" ht="50.25">
       <c r="B3" s="19"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="39" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="1:20" ht="39">
       <c r="A4" s="3"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="44" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="42" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="42" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="43"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:20" ht="32.25">
       <c r="A5" s="2"/>
@@ -10241,108 +10583,113 @@
       <c r="R106" s="13"/>
     </row>
     <row r="108" spans="1:20">
-      <c r="I108" s="37" t="s">
+      <c r="I108" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
-      <c r="Q108" s="38"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="49"/>
     </row>
     <row r="109" spans="1:20">
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="49"/>
     </row>
     <row r="110" spans="1:20">
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="49"/>
     </row>
     <row r="111" spans="1:20">
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
-      <c r="O111" s="38"/>
-      <c r="P111" s="38"/>
-      <c r="Q111" s="38"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
     </row>
     <row r="112" spans="1:20">
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
-      <c r="L112" s="38"/>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="38"/>
-      <c r="Q112" s="38"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="49"/>
     </row>
     <row r="113" spans="9:17">
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="49"/>
+      <c r="Q113" s="49"/>
     </row>
     <row r="114" spans="9:17">
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="38"/>
-      <c r="Q114" s="38"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
     </row>
     <row r="115" spans="9:17">
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
     </row>
     <row r="116" spans="9:17">
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="49"/>
+      <c r="P116" s="49"/>
+      <c r="Q116" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I108:Q116"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -10351,11 +10698,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="I108:Q116"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:N105">
     <cfRule type="colorScale" priority="10">
@@ -10486,53 +10828,53 @@
   </cols>
   <sheetData>
     <row r="4" spans="9:15">
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="9:15">
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="9:15">
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="9:15">
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="14" spans="9:15" ht="51">
       <c r="I14" s="21"/>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55" t="s">
+      <c r="K14" s="55"/>
+      <c r="L14" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="56"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="9:15" ht="31.5">
       <c r="I15" s="9" t="s">
@@ -14886,579 +15228,579 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
     </row>
     <row r="28" spans="2:19" ht="64.5">
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="33" spans="22:40">
-      <c r="V33" s="57" t="s">
+      <c r="V33" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AJ33" s="57" t="s">
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AJ33" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
+      <c r="AK33" s="58"/>
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
     </row>
     <row r="34" spans="22:40">
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AJ34" s="58"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
     </row>
     <row r="35" spans="22:40">
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="58"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
     </row>
     <row r="63" spans="9:13" ht="39">
-      <c r="I63" s="57" t="s">
+      <c r="I63" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
     </row>
     <row r="65" spans="24:30" ht="15" customHeight="1">
-      <c r="X65" s="57" t="s">
+      <c r="X65" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="Y65" s="58"/>
-      <c r="Z65" s="58"/>
-      <c r="AA65" s="58"/>
-      <c r="AB65" s="58"/>
-      <c r="AC65" s="58"/>
-      <c r="AD65" s="58"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="59"/>
+      <c r="AB65" s="59"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="59"/>
     </row>
     <row r="66" spans="24:30">
-      <c r="X66" s="58"/>
-      <c r="Y66" s="58"/>
-      <c r="Z66" s="58"/>
-      <c r="AA66" s="58"/>
-      <c r="AB66" s="58"/>
-      <c r="AC66" s="58"/>
-      <c r="AD66" s="58"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="59"/>
+      <c r="AB66" s="59"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="59"/>
     </row>
     <row r="67" spans="24:30">
-      <c r="X67" s="58"/>
-      <c r="Y67" s="58"/>
-      <c r="Z67" s="58"/>
-      <c r="AA67" s="58"/>
-      <c r="AB67" s="58"/>
-      <c r="AC67" s="58"/>
-      <c r="AD67" s="58"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="59"/>
+      <c r="AA67" s="59"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15479,7 +15821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -15642,27 +15984,27 @@
       <c r="B21">
         <v>3.67</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
     </row>
     <row r="22" spans="2:26" ht="15" customHeight="1">
       <c r="B22">
         <v>3.67</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
     </row>
     <row r="23" spans="2:26">
       <c r="B23">
@@ -21284,27 +21626,27 @@
       <c r="D17">
         <v>0.65</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="4:16">
       <c r="D18">
         <v>0.65</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="4:16">
       <c r="D19">
@@ -27498,4 +27840,2679 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:N490"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61:N61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:2">
+      <c r="B7" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8">
+        <v>22.59375</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9">
+        <v>20.53125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10">
+        <v>19.640625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11">
+        <v>19.984375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12">
+        <v>19.28125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13">
+        <v>19.390625</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14">
+        <v>19.09375</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15">
+        <v>19.984375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16">
+        <v>20.109375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>19.765625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>25.265625</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>20.84375</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>19.34375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <v>19.328125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <v>19.484375</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <v>19.453125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25">
+        <v>19.21875</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <v>20.03125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27">
+        <v>22.3125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28">
+        <v>20.921875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29">
+        <v>20.265625</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30">
+        <v>20.640625</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31">
+        <v>19.96875</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32">
+        <v>12.90625</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34">
+        <v>18.84375</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B35">
+        <v>14.234375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36">
+        <v>20.25</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37">
+        <v>19.40625</v>
+      </c>
+      <c r="K37" s="28">
+        <v>-10.015625</v>
+      </c>
+      <c r="L37" s="28">
+        <v>1</v>
+      </c>
+      <c r="M37" s="29">
+        <v>2.070393374741201E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38">
+        <v>19.171875</v>
+      </c>
+      <c r="K38" s="28">
+        <v>-2.8035714285714288</v>
+      </c>
+      <c r="L38" s="28">
+        <v>1</v>
+      </c>
+      <c r="M38" s="29">
+        <v>4.140786749482402E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39">
+        <v>19.953125</v>
+      </c>
+      <c r="K39" s="28">
+        <v>2.0044642857142865</v>
+      </c>
+      <c r="L39" s="28">
+        <v>1</v>
+      </c>
+      <c r="M39" s="29">
+        <v>6.2111801242236021E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40">
+        <v>17.734375</v>
+      </c>
+      <c r="K40" s="28">
+        <v>6.8125</v>
+      </c>
+      <c r="L40" s="28">
+        <v>1</v>
+      </c>
+      <c r="M40" s="29">
+        <v>8.2815734989648039E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41">
+        <v>19.546875</v>
+      </c>
+      <c r="K41" s="28">
+        <v>11.620535714285715</v>
+      </c>
+      <c r="L41" s="28">
+        <v>3</v>
+      </c>
+      <c r="M41" s="29">
+        <v>1.4492753623188406E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42">
+        <v>19.625</v>
+      </c>
+      <c r="K42" s="28">
+        <v>14.024553571428573</v>
+      </c>
+      <c r="L42" s="28">
+        <v>8</v>
+      </c>
+      <c r="M42" s="29">
+        <v>3.1055900621118012E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43">
+        <v>21.3125</v>
+      </c>
+      <c r="K43" s="28">
+        <v>16.428571428571431</v>
+      </c>
+      <c r="L43" s="28">
+        <v>35</v>
+      </c>
+      <c r="M43" s="29">
+        <v>0.10351966873706005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44">
+        <v>20.28125</v>
+      </c>
+      <c r="K44" s="28">
+        <v>18.832589285714285</v>
+      </c>
+      <c r="L44" s="28">
+        <v>260</v>
+      </c>
+      <c r="M44" s="29">
+        <v>0.64182194616977228</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45">
+        <v>20.65625</v>
+      </c>
+      <c r="K45" s="28">
+        <v>21.236607142857142</v>
+      </c>
+      <c r="L45" s="28">
+        <v>152</v>
+      </c>
+      <c r="M45" s="29">
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46">
+        <v>13.578125</v>
+      </c>
+      <c r="K46" s="28">
+        <v>23.640625</v>
+      </c>
+      <c r="L46" s="28">
+        <v>13</v>
+      </c>
+      <c r="M46" s="29">
+        <v>0.9834368530020704</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47">
+        <v>19.75</v>
+      </c>
+      <c r="K47" s="28">
+        <v>26.044642857142861</v>
+      </c>
+      <c r="L47" s="28">
+        <v>3</v>
+      </c>
+      <c r="M47" s="29">
+        <v>0.98964803312629401</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48">
+        <v>19.484375</v>
+      </c>
+      <c r="K48" s="28">
+        <v>28.448660714285715</v>
+      </c>
+      <c r="L48" s="28">
+        <v>2</v>
+      </c>
+      <c r="M48" s="29">
+        <v>0.99378881987577639</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49">
+        <v>20.34375</v>
+      </c>
+      <c r="K49" s="28">
+        <v>30.852678571428569</v>
+      </c>
+      <c r="L49" s="28">
+        <v>1</v>
+      </c>
+      <c r="M49" s="29">
+        <v>0.99585921325051763</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50">
+        <v>23.328125</v>
+      </c>
+      <c r="K50" s="28">
+        <v>38.064732142857146</v>
+      </c>
+      <c r="L50" s="28">
+        <v>1</v>
+      </c>
+      <c r="M50" s="29">
+        <v>0.99792960662525876</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B51">
+        <v>18.5625</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L51" s="30">
+        <v>1</v>
+      </c>
+      <c r="M51" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52">
+        <v>19.09375</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53">
+        <v>18.90625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54">
+        <v>19.984375</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55">
+        <v>17.703125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B56">
+        <v>19.984375</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57">
+        <v>-3.671875</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58">
+        <v>19.328125</v>
+      </c>
+      <c r="K58" s="28"/>
+      <c r="N58" s="28"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59">
+        <v>22.9375</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="N59" s="28">
+        <v>18.226708074534162</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <v>20.0625</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="N60" s="28">
+        <v>0.13726658941420006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61">
+        <v>18.515625</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="N61" s="28">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62">
+        <v>19.359375</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="N62" s="28">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63">
+        <v>18.5625</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="N63" s="28">
+        <v>3.0167436588187897</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64">
+        <v>19.03125</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N64" s="28">
+        <v>9.1007423030233774</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65">
+        <v>19.90625</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="N65" s="28">
+        <v>33.690806643673817</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66">
+        <v>18.65625</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="N66" s="28">
+        <v>-1.4946220261573318</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67">
+        <v>19.171875</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="N67" s="28">
+        <v>50.484375</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68">
+        <v>19.25</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="N68" s="28">
+        <v>-10.015625</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69">
+        <v>19.953125</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="N69" s="28">
+        <v>40.46875</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70">
+        <v>19.140625</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="N70" s="28">
+        <v>8803.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71">
+        <v>17.984375</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="N71" s="28">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B72">
+        <v>19.40625</v>
+      </c>
+      <c r="K72" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="N72" s="30">
+        <v>0.26971481933475711</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73">
+        <v>17.375</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74">
+        <v>21.78125</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75">
+        <v>18.328125</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76">
+        <v>19.921875</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77">
+        <v>19.65625</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78">
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79">
+        <v>17.921875</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80">
+        <v>17.359375</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81">
+        <v>19.015625</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82">
+        <v>20.078125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <v>18.40625</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>18.546875</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>19.1875</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>19.328125</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>17.296875</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>20.53125</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89">
+        <v>19.640625</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <v>18.1875</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <v>19.609375</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92">
+        <v>19.828125</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93">
+        <v>19.65625</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94">
+        <v>14.609375</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>18.171875</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96">
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97">
+        <v>18.78125</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98">
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99">
+        <v>16.78125</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <v>18.6875</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101">
+        <v>16.78125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102">
+        <v>17.109375</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>40.46875</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104">
+        <v>20.34375</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105">
+        <v>17.828125</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106">
+        <v>19.78125</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107">
+        <v>18.40625</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108">
+        <v>16.140625</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110">
+        <v>17.09375</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <v>18.8125</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112">
+        <v>17.3125</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113">
+        <v>17.71875</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114">
+        <v>19.640625</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115">
+        <v>17.671875</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118">
+        <v>17.546875</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119">
+        <v>18.359375</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122">
+        <v>11.921875</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123">
+        <v>18.59375</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124">
+        <v>17.234375</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125">
+        <v>17.96875</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128">
+        <v>17.171875</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129">
+        <v>18.90625</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130">
+        <v>18.734375</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131">
+        <v>19.015625</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132">
+        <v>24.484375</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133">
+        <v>17.984375</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134">
+        <v>16.9375</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135">
+        <v>16.421875</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136">
+        <v>17.921875</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138">
+        <v>19.578125</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139">
+        <v>15.890625</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140">
+        <v>17.421875</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141">
+        <v>19.015625</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142">
+        <v>6.03125</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143">
+        <v>18.15625</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144">
+        <v>21.125</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146">
+        <v>16.765625</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147">
+        <v>18.984375</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148">
+        <v>16.546875</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150">
+        <v>20.1875</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151">
+        <v>16.078125</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153">
+        <v>16.859375</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154">
+        <v>29.921875</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155">
+        <v>17.359375</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156">
+        <v>19.796875</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157">
+        <v>18.921875</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158">
+        <v>19.359375</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161">
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162">
+        <v>18.640625</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165">
+        <v>14.609375</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166">
+        <v>18.03125</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167">
+        <v>18.390625</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168">
+        <v>16.78125</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169">
+        <v>16.828125</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170">
+        <v>18.5625</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171">
+        <v>17.203125</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172">
+        <v>17.515625</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173">
+        <v>18.15625</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175">
+        <v>17.90625</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176">
+        <v>19.1875</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179">
+        <v>17.875</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180">
+        <v>18.265625</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182">
+        <v>18.703125</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183">
+        <v>13.953125</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185">
+        <v>17.90625</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186">
+        <v>18.875</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188">
+        <v>19.484375</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189">
+        <v>11.640625</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190">
+        <v>21.140625</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192">
+        <v>18.984375</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193">
+        <v>19.15625</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194">
+        <v>20.046875</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195">
+        <v>18.921875</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196">
+        <v>19.546875</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199">
+        <v>18.40625</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200">
+        <v>16.578125</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201">
+        <v>15.78125</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202">
+        <v>16.640625</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203">
+        <v>26.03125</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204">
+        <v>-10.015625</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205">
+        <v>18.8125</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206">
+        <v>16.90625</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207">
+        <v>19.359375</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208">
+        <v>16.46875</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209">
+        <v>17.46875</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210">
+        <v>17.125</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211">
+        <v>19.09375</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212">
+        <v>16.6875</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215">
+        <v>17.828125</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216">
+        <v>26.65625</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217">
+        <v>19.046875</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218">
+        <v>17.515625</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220">
+        <v>19.1875</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221">
+        <v>16.78125</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222">
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223">
+        <v>14.65625</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224">
+        <v>17.890625</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226">
+        <v>17.703125</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227">
+        <v>17.921875</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228">
+        <v>15.515625</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229">
+        <v>17.359375</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232">
+        <v>16.9375</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233">
+        <v>18.171875</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234">
+        <v>17.8125</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235">
+        <v>17.125</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236">
+        <v>18.359375</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238">
+        <v>13.6875</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242">
+        <v>18.296875</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243">
+        <v>17.8125</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244">
+        <v>19.015625</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245">
+        <v>17.921875</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246">
+        <v>18.359375</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247">
+        <v>18.421875</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248">
+        <v>18.6875</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249">
+        <v>18.734375</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250">
+        <v>19.203125</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251">
+        <v>17.671875</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252">
+        <v>17.375</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253">
+        <v>17.71875</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254">
+        <v>16.4375</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255">
+        <v>18.515625</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256">
+        <v>16.21875</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257">
+        <v>18.34375</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258">
+        <v>18.71875</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259">
+        <v>16.484375</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260">
+        <v>18.703125</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261">
+        <v>17.546875</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262">
+        <v>18.390625</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263">
+        <v>16.109375</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264">
+        <v>17.109375</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265">
+        <v>18.15625</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266">
+        <v>17.96875</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267">
+        <v>16.96875</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268">
+        <v>16.34375</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270">
+        <v>16.609375</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271">
+        <v>17.234375</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272">
+        <v>17.703125</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274">
+        <v>17.421875</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275">
+        <v>15.953125</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277">
+        <v>18.15625</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278">
+        <v>17.859375</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279">
+        <v>15.828125</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280">
+        <v>38.046875</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281">
+        <v>18.09375</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282">
+        <v>18.015625</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283">
+        <v>17.03125</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285">
+        <v>18.90625</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287">
+        <v>18.0625</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289">
+        <v>16.859375</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290">
+        <v>17.984375</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292">
+        <v>18.015625</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293">
+        <v>17.5625</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294">
+        <v>17.59375</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295">
+        <v>17.09375</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296">
+        <v>18.109375</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297">
+        <v>15.421875</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299">
+        <v>17.765625</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300">
+        <v>20.03125</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302">
+        <v>14.1875</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304">
+        <v>18.09375</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305">
+        <v>16.375</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306">
+        <v>17.765625</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307">
+        <v>18.046875</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308">
+        <v>18.5625</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309">
+        <v>18.1875</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310">
+        <v>20.984375</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311">
+        <v>15.296875</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312">
+        <v>19.09375</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313">
+        <v>15.328125</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314">
+        <v>18.09375</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316">
+        <v>19.640625</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317">
+        <v>17.59375</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318">
+        <v>18.421875</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319">
+        <v>17.6875</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320">
+        <v>18.046875</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321">
+        <v>19.015625</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322">
+        <v>16.46875</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323">
+        <v>15.546875</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324">
+        <v>17.703125</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325">
+        <v>17.765625</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326">
+        <v>18.03125</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327">
+        <v>17.03125</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328">
+        <v>18.359375</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330">
+        <v>18.296875</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331">
+        <v>20.296875</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333">
+        <v>17.828125</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334">
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335">
+        <v>18.71875</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337">
+        <v>16.421875</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338">
+        <v>17.53125</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339">
+        <v>18.109375</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340">
+        <v>16.515625</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342">
+        <v>16.109375</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343">
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344">
+        <v>16.265625</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345">
+        <v>20.328125</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346">
+        <v>17.140625</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347">
+        <v>17.234375</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348">
+        <v>17.28125</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349">
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350">
+        <v>18.21875</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351">
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353">
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354">
+        <v>14.484375</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356">
+        <v>19.515625</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357">
+        <v>19.328125</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359">
+        <v>20.265625</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360">
+        <v>17.140625</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361">
+        <v>18.03125</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362">
+        <v>18.390625</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363">
+        <v>11.0625</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364">
+        <v>18.40625</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365">
+        <v>20.65625</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366">
+        <v>18.765625</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367">
+        <v>14.84375</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368">
+        <v>14.203125</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369">
+        <v>17.03125</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372">
+        <v>21.484375</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373">
+        <v>15.90625</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374">
+        <v>22.875</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376">
+        <v>15.484375</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377">
+        <v>17.734375</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378">
+        <v>18.59375</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379">
+        <v>19.359375</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382">
+        <v>18.203125</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384">
+        <v>19.671875</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385">
+        <v>19.03125</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386">
+        <v>16.703125</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387">
+        <v>13.96875</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388">
+        <v>19.03125</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389">
+        <v>16.96875</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390">
+        <v>16.6875</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391">
+        <v>18.09375</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392">
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393">
+        <v>19.328125</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394">
+        <v>18.625</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395">
+        <v>18.875</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396">
+        <v>20.21875</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397">
+        <v>18.875</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398">
+        <v>19.953125</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399">
+        <v>17.5625</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401">
+        <v>19.359375</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403">
+        <v>17.109375</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404">
+        <v>17.796875</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405">
+        <v>18.59375</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406">
+        <v>13.953125</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407">
+        <v>20.4375</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408">
+        <v>18.796875</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409">
+        <v>18.109375</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410">
+        <v>16.828125</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411">
+        <v>16.234375</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413">
+        <v>19.796875</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414">
+        <v>17.453125</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415">
+        <v>17.53125</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416">
+        <v>19.734375</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417">
+        <v>20.453125</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420">
+        <v>19.171875</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421">
+        <v>18.921875</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422">
+        <v>18.625</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423">
+        <v>18.328125</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424">
+        <v>16.078125</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425">
+        <v>16.65625</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426">
+        <v>19.3125</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427">
+        <v>19.03125</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428">
+        <v>18.28125</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429">
+        <v>17.5625</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430">
+        <v>16.53125</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432">
+        <v>17.859375</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433">
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434">
+        <v>17.96875</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435">
+        <v>16.515625</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436">
+        <v>18.40625</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437">
+        <v>17.765625</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438">
+        <v>17.765625</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439">
+        <v>23.09375</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440">
+        <v>16.140625</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441">
+        <v>17.15625</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442">
+        <v>17.15625</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443">
+        <v>19.15625</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444">
+        <v>18.984375</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445">
+        <v>18.46875</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446">
+        <v>16.765625</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447">
+        <v>18.65625</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448">
+        <v>18.5625</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450">
+        <v>17.859375</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451">
+        <v>18.15625</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453">
+        <v>16.640625</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454">
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455">
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457">
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458">
+        <v>18.90625</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459">
+        <v>18.171875</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460">
+        <v>17.71875</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461">
+        <v>21.078125</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462">
+        <v>17.6875</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463">
+        <v>17.703125</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464">
+        <v>20.046875</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465">
+        <v>20.71875</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466">
+        <v>21.390625</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467">
+        <v>21.296875</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469">
+        <v>18.484375</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470">
+        <v>19.171875</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472">
+        <v>20.734375</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473">
+        <v>19.765625</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474">
+        <v>26.53125</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475">
+        <v>18.71875</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476">
+        <v>18.859375</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477">
+        <v>16.9375</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478">
+        <v>19.46875</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479">
+        <v>19.796875</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480">
+        <v>21.578125</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481">
+        <v>18.578125</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482">
+        <v>19.609375</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483">
+        <v>20.03125</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484">
+        <v>18.171875</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485">
+        <v>18.1875</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486">
+        <v>19.140625</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487">
+        <v>18.5625</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488">
+        <v>11.53125</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489">
+        <v>19.765625</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490">
+        <v>19.796875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>